--- a/cis/prod_cis.xlsx
+++ b/cis/prod_cis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="664">
   <si>
     <t>Nome</t>
   </si>
@@ -142,6 +142,9 @@
     <t>1993</t>
   </si>
   <si>
+    <t>2019</t>
+  </si>
+  <si>
     <t>2006</t>
   </si>
   <si>
@@ -157,6 +160,9 @@
     <t xml:space="preserve"> TREVIZANI, TAILISI HOPPE ; PETTI, MONICA ANGELICA VARELLA ; Ribeiro, Andreza Portella ; CORBISIER, THAIS NAVAJAS ; FIGUEIRA, Rubens Cesar Lopes . Heavy metal concentrations in the benthic trophic web of Martel Inlet, Admiralty Bay (King George Island, Antarctica). MARINE POLLUTION BULLETIN, v. 130, p. 198-205, 2018. </t>
   </si>
   <si>
+    <t xml:space="preserve">URIOESTE, A. ; Leitão, M. A. S. ; AQUINO, S. ; RIBEIRO, A. P. . LOGÍSTICA REVERSA DE EXPLANTES CIRÚRGICOS EM UM HOSPITAL FILANTRÓPICO: IMPLANTAÇÃO DE UM NOVO MODELO ECOEFICIENTE DE GERENCIAMENTO DE RESÍDUO HOSPITALAR. Revista de Gestão em Sistemas de Saúde, v. 7, p. 257-273, 2018. </t>
+  </si>
+  <si>
     <t xml:space="preserve"> LAMANO FERREIRA, MAURÍCIO ; PORTELLA RIBEIRO, ANDREZA ; RODRIGUES ALBUQUERQUE, CAROLINE ; FERREIRA, ANA PAULA DO NASCIMENTO LAMANO ; FIGUEIRA, RUBENS CÉSAR LOPES ; LAFORTEZZA, RAFFAELE . Air contaminants and litter fall decomposition in urban forest areas: The case of São Paulo - SP, Brazil. Environmental Research (New York, N.Y. Print), v. 155, p. 314-320, 2017. </t>
   </si>
   <si>
@@ -238,12 +244,12 @@
     <t xml:space="preserve">Ribeiro, Andreza P.; Figueira, Rubens C.L. ; Martins, César C. ; Silva, Charles R.A. ; França, Elvis J. ; Bícego, Márcia C. ; Mahiques, Michel M. ; Montone, Rosalinda C. . Arsenic and trace metal contents in sediment profiles from the Admiralty Bay, King George Island, Antarctica. Marine Pollution Bulletin., v. 62, p. 192-196, 2011. </t>
   </si>
   <si>
+    <t xml:space="preserve">Ferreira, A. B. ; SAIKI, M. ; SANTOS, J. O. ; RIBEIRO, A. P. ; Saldiva, P. H. N. . Elemental composition evaluation in lichens collected in the industrial city of SÃ£o Mateus Sul, ParanÃ¡, Brazil. Journal of Radioanalytical and Nuclear Chemistry (Print), v. 291, p. 71-76, 2011. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Ribeiro, Andreza P.; Figueiredo, Ana Maria G. ; Ticianelli, Regina B. ; Nammoura-Neto, Georges M. ; Silva, NatÃ¡lia C. ; Kakazu, Mauricio H. ; Zahn, Guilherme . Metals and semi-metals in street soils of SÃ£o Paulo city, Brazil. Journal of Radioanalytical and Nuclear Chemistry (Print), v. 291, p. 137-142, 2011. </t>
   </si>
   <si>
-    <t xml:space="preserve">Ferreira, A. B. ; SAIKI, M. ; SANTOS, J. O. ; RIBEIRO, A. P. ; Saldiva, P. H. N. . Elemental composition evaluation in lichens collected in the industrial city of SÃ£o Mateus Sul, ParanÃ¡, Brazil. Journal of Radioanalytical and Nuclear Chemistry (Print), v. 291, p. 71-76, 2011. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> RIBEIRO, A. P.;Ribeiro, Andreza P.;Ribeiro, Andreza Portella;RIBEIRO, A.;Ribeiro, Andreza;RIBEIRO, A.P.;RIBEIRO, A. P.; FIGUEIRA, R. C. L. ; Martins, C. C. ; SILVA, C.R.A ; FRANÇA E.J. ; BÍCEGO, M.C. ; MAHIQUES, M. M. ; MONTONE, R. C. . Arsenic content in five sediment profiles from Admiralty Bay, King George Island, Antarctica. INCT-APA Annual Activity Report, p. 52-57, 2010. </t>
   </si>
   <si>
@@ -262,15 +268,12 @@
     <t xml:space="preserve"> LEITE, Carlos. O PIU NESP - PROJETO DE INTERVENÇÃO URBANA DO NOVO ENTREPOSTO DE SÃO PAULO: OPORTUNIDADES DE REORGANIZAÇÃO DA CIDADE. Projeto Design, v. 1, p. 1-1, 2018. </t>
   </si>
   <si>
-    <t xml:space="preserve"> LEITE, Carlos; ACOSTA, C. ; SUTTI, W. . Urbanismo social em São Paulo Política pública fundiária e instrumentos indutores desenvolvidos no período 2013-2016 (gestão Haddad). ARQUITEXTOS (SÃO PAULO), v. 219.06, p. 1-15, 2018. </t>
+    <t xml:space="preserve"> LEITE, Carlos; ACOSTA, C. ; SUTTI, W. ; HADDAD, F. . Urbanismo social em São Paulo Política pública fundiária e instrumentos indutores desenvolvidos no período 2013-2016 (gestão Haddad). ARQUITEXTOS (SÃO PAULO), v. 219.06, p. 1-15, 2018. </t>
   </si>
   <si>
     <t xml:space="preserve">STUCHI, F. ; LEITE, Carlos . Morar Versátil. Revista Casa e Jardim, v. 752, p. 98-107, 2017. </t>
   </si>
   <si>
-    <t xml:space="preserve"> LEITE, Carlos. INSTRUMENTOS URBANOS INOVADORES. Projeto Design, v. 1, p. 1-1, 2016. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> LEITE, Carlos. Instrumentos urbanos inovadores. Projeto Design, v. 1, p. 1, 2016. </t>
   </si>
   <si>
@@ -283,7 +286,7 @@
     <t xml:space="preserve"> LEITE, Carlos. Inteligência Territorial: cidades inteligentes com urbanidade. Cadernos FGV Projetos, v. 24, p. 72-89, 2015. </t>
   </si>
   <si>
-    <t xml:space="preserve"> LEITE, Carlos; STUCHI, F. . Projetos de parques lineares em Piracicaba, Goiânia e em Medellín mostram as apostas na recuperação das margens dos rios urbanos. AU. Arquitetura e Urbanismo, v. 256, p. 37-42, 2015. </t>
+    <t xml:space="preserve"> LEITE, Carlos2015LEITE, Carlos; TITTON, C. . Reflexões Acerca do Papel da Arquitetura e do Urbanismo na Cidade Contemporânea. CADERNOS DE PÓS GRADUAÇÃO EM ARQUITETURA E URBANISMO (MACKENZIE. ONLINE), v. 2011, p. 46-61, 2015. </t>
   </si>
   <si>
     <t xml:space="preserve"> LEITE, Carlos. Cidades Inteligentes Informais. Cadernos FGV Projetos, v. 24, p. 18-24, 2014. </t>
@@ -319,18 +322,18 @@
     <t xml:space="preserve"> LEITE, Carlos. Ensino de Arquitetura: Brasil: perdemos o rumo?. AU. Arquitetura e Urbanismo, v. 203, p. 87-90, 2011. </t>
   </si>
   <si>
+    <t xml:space="preserve"> LEITE, Carlos. São Paulo, megacidade e redesenvolvimento sustentável: uma estratégia propositiva. Urbe. Revista Brasileira de Gestão Urbana, v. 2, p. 117-126, 2010. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LEITE, Carlos. Cidades 2010 + 25. AU. Arquitetura e Urbanismo, v. 25, p. 104-107, 2010. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LEITE, Carlos. A Resposta das Cidades. Cidades sustentáveis, o desafio do momento.. Nova Escola, v. 1, p. 1-2, 2010. </t>
+  </si>
+  <si>
     <t xml:space="preserve"> LEITE, Carlos. Cidades sustentáveis? Desafios e oportunidades. ComCiência (UNICAMP), v. 118, p. 1-1, 2010. </t>
   </si>
   <si>
-    <t xml:space="preserve"> LEITE, Carlos. São Paulo, megacidade e redesenvolvimento sustentável: uma estratégia propositiva. Urbe. Revista Brasileira de Gestão Urbana, v. 2, p. 117-126, 2010. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LEITE, Carlos. Cidades 2010 + 25. AU. Arquitetura e Urbanismo, v. 25, p. 104-107, 2010. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LEITE, Carlos. A Resposta das Cidades. Cidades sustentáveis, o desafio do momento.. Nova Escola, v. 1, p. 1-2, 2010. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> LEITE, Carlos. São Paulo e as Megacidades: desafios e oportunidades do desenvolvimento sustentável.. Dom (Fundação Dom Cabral), v. 8, p. 52-59, 2009. </t>
   </si>
   <si>
@@ -382,12 +385,12 @@
     <t xml:space="preserve"> LEITE, Carlos; FIGUEROA, M. A. . Arquitetura Contemporânea: Visitando a Europa.. Oculum (Campinas), Campinas, v. 35, p. 3-3, 1999. </t>
   </si>
   <si>
+    <t xml:space="preserve"> LEITE, Carlos. Kevin Lynch: Imagem e Desenho das Cidades.. Projeto (São Paulo), São Paulo, v. 218, p. 100-101, 1998. </t>
+  </si>
+  <si>
     <t xml:space="preserve"> LEITE, Carlos; SANTOS, E. M. N. . Torre de Babel, A Queda do Homem e a Preparação Para Atravessar Canaã (Algumas Considerações Sobre Arquiteturas Urbanas Pós-Modernas à Luz da Bíblia: Rupturas e Tendências).. Revista Se Fau Mackenzie, São Paulo, v. 2, p. 6-14, 1998. </t>
   </si>
   <si>
-    <t xml:space="preserve"> LEITE, Carlos. Kevin Lynch: Imagem e Desenho das Cidades.. Projeto (São Paulo), São Paulo, v. 218, p. 100-101, 1998. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> LEITE, Carlos. Desenho Urbano: Terra de Quem?. Revista Fau Mackenzie 50 Anos, São Paulo, v. único, p. 120-128, 1997. </t>
   </si>
   <si>
@@ -418,6 +421,9 @@
     <t xml:space="preserve">		Monte, F. V. G. ; QUARESMA, C. C. ; KNIESS, C. T. ; LAMANO FERREIRA, MAURÍCIO ; CONTI, D. de M. . Análise das contribuições do Novo Urbanismo e do Bairro Pedra Branca/SC ? BRASIL para a solução de problemas de mobilidade urbana. REVISTA BRASILEIRA DE GESTÃO E DESENVOLVIMENTO REGIONAL, v. 14, p. 269-294, 2018. </t>
   </si>
   <si>
+    <t xml:space="preserve"> QUARESMA, CRISTIANO CAPELLANI; PEREZ FILHO, A. ; BARBOSA, P. de O. ; MORAES, M. B. ; LAMMLE, L. . Influências da Textura e Temperatura dos Solos Sobre a Regeneração do Cerrado na Estação Ecológica de Jataí - Luiz Antônio/SP-Brasil. REVISTA DO DEPARTAMENTO DE GEOGRAFIA, v. 36, p. 141-154, 2018. </t>
+  </si>
+  <si>
     <t xml:space="preserve">CARMO, M. A. ; LAMANO-FERREIRA, A. P. do N. ; QUARESMA, C. C. . Parque CERET: percepção de frequentadores sobre sua infraestrutura e valorização imobiliária. REVISTA NACIONAL DE GERENCIAMENTO DE CIDADES, v. 5, p. 29-41, 2017. </t>
   </si>
   <si>
@@ -463,15 +469,18 @@
     <t xml:space="preserve">MONTE, F. V. G. ; QUARESMA, C. C. ; KNIESS, C. T. ; FERREIRA, M. L. ; CONTI, D. M. . Análise das contribuições do novo urbanismo e do bairro Pedra Branca/SC - Brasil para a solução de problemas de mobilidade urbana. REVISTA BRASILEIRA DE GESTÃO E DESENVOLVIMENTO REGIONAL, v. 14, p. 269-294, 2018. </t>
   </si>
   <si>
+    <t xml:space="preserve">BENTO, S. C. ; CONTI, D. M. ; BAPTISTA, R. M. ; GHOBRIL, C. N. . As novas diretrizes e a importância do planejamento urbano para o desenvolvimento de cidades sustentáveis. REVISTA DE GESTAO AMBIENTAL E SUSTENTABILIDADE, v. 7, p. 10, 2018. </t>
+  </si>
+  <si>
     <t xml:space="preserve"> BERNARDELLI BERNARDELLI JUNIOR, JOSÉ MARIA ; SILVA RUIZ, MAURO ; FIGUEIREDO GALLARDO, AMARILIS LUCIA CASTELI ; MELO CONTI, DIEGO DE ; CAPELLANI QUARESMA, CRISTIANO . CHALLENGES FOR LOCAL SUSTAINABLE DEVELOPMENT: AN ANALYSIS OF SOCIO-ENVIRONMENTAL CONFLICTS IN URBAN DENSITIES IN THE FOOTHILLS OF SERRA DA CANTAREIRA, BRAZIL. RISUS. Journal on Innovation and Sustainability, v. 8, p. 114, 2017. </t>
   </si>
   <si>
+    <t xml:space="preserve"> ISAAC, RENATA2016ISAAC, RENATA ; DE MELO CONTI, DIEGO ; GHOBRIL, CARLOS NABIL ; NETTO, LUIZ FOSTINONE ; JUNIOR, CALUDIO TUCCI . Sustainability and Competitive Advantage: A Study in a Brazilian Cosmetic Company. INTERNATIONAL BUSINESS RESEARCH, v. 10, p. 96, 2016. </t>
+  </si>
+  <si>
     <t xml:space="preserve">MARUN, C. S. ; CONTI, D. M. ; CONTI, D. M. ; FOSTINONE-NETTO, L. ; GHOBRIL, C. N. ; ROMBOLI, S. M. . Influência da Rede PEA-UNESCO na implantação de programas de educação para sustentabilidade em escolas parceiras. Revista Brasileira de Educação Ambiental (Online), v. 11, p. 54, 2016. </t>
   </si>
   <si>
-    <t xml:space="preserve"> ISAAC, RENATA2016ISAAC, RENATA ; DE MELO CONTI, DIEGO ; GHOBRIL, CARLOS NABIL ; NETTO, LUIZ FOSTINONE ; JUNIOR, CALUDIO TUCCI . Sustainability and Competitive Advantage: A Study in a Brazilian Cosmetic Company. INTERNATIONAL BUSINESS RESEARCH, v. 10, p. 96, 2016. </t>
-  </si>
-  <si>
     <t xml:space="preserve">REIS, M. F. ; CONTI, D. M. ; CORREA, R. M. . Gestão de Resíduos Sólidos: Desafios e Oportunidades para a Cidade de São Paulo. RISUS. Journal on Innovation and Sustainability, v. 6, p. 77-96, 2015. </t>
   </si>
   <si>
@@ -493,7 +502,10 @@
     <t xml:space="preserve"> CONTI, D. M.;DE MELO CONTI, DIEGO;MELO CONTI, D. M.. Uma abordagem do tema: Gestão Social. Revista Iluminart do IFSP, v. 1, p. 162-170, 2010. </t>
   </si>
   <si>
-    <t xml:space="preserve">Tavares, Jefferson S. ; RAMOS, HEIDY R. ; LAMANO-FERREIRA, ANA PAULA DO NASCIMENTO . Percepção e Comportamento Ambiental de consumidores de combustiveis em um auto posto na cidade de São Paulo-SP.. FÓRUM AMBIENTAL DA ALTA PAULISTA, v. 14, p. 1-20, 2018. </t>
+    <t xml:space="preserve">BERNARDO, E. G. ; RAMOS, Heidy Rodriguez ; VILS, L. . Panorama da Produção Científica em Empreendedorismo Rural: Um Estudo Bibliométrico. REGEPE, v. 8, p. 102-125, 2019. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tavares, Jefferson S. ; RAMOS, HEIDY R. ; LAMANO-FERREIRA, ANA PAULA DO NASCIMENTO . Percepção e comportamento ambiental de consumidores de combustíveis em um auto posto na cidade de São Paulo-SP. FÓRUM AMBIENTAL DA ALTA PAULISTA, v. 14, p. 2-15, 2018. </t>
   </si>
   <si>
     <t xml:space="preserve">MORIZONO, R. C. F. C. ; RAMOS, Heidy Rodriguez ; KNIESS, CLAUDIA TEREZINHA . Análise da preferência de consumidores por etanol e gasolina no Brasil. ENSAIOS FEE (ONLINE), v. 38, p. 877-902, 2018. </t>
@@ -511,6 +523,9 @@
     <t xml:space="preserve">SOARES, E. D. ; RAMOS, Heidy Rodriguez . Siga o líder: A influência de uma liderança carismática religiosa no crescimento turístico da cidade de Nova Trento em Santa Catarina. PODIUM: SPORT, LEISURE AND TOURISM REVIEW, v. 7, p. 390-401, 2018. </t>
   </si>
   <si>
+    <t xml:space="preserve"> SEGANTIN, CRISTIANO CATTO ; RAMOS, Heidy Rodriguez . Implantação de soluções de transporte de Baixo Carbono na cidade de São Paulo. FÓRUM AMBIENTAL DA ALTA PAULISTA, v. 14, p. 2-15, 2018. </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Nadruz, V.N2017Nadruz, V.N ; GALLARDO, A. L. C. F. ; RAMOS, Heidy Rodriguez ; RUIZ, M. S. . Avaliação desempenho ambiental a partir de práticas de gestão ambiental para qualificação de contratação de obras de linha de transmissão. EXACTA (ONLINE), v. 15, p. 187-202, 2017. </t>
   </si>
   <si>
@@ -538,21 +553,21 @@
     <t xml:space="preserve">ANDRADE, D. C. T. ; RAMOS, HEIDY R. . Cursos de Gastronomia, profissionais com formação acadêmica e mercado de trabalho. Revista Acadêmica Observatório de Inovação do Turismo, v. IX, p. 85-100, 2016. </t>
   </si>
   <si>
+    <t xml:space="preserve">SOUZA, E. F. G. ; RAMOS, Heidy Rodriguez ; RUIZ, M. S. . A Produção Mais Limpa no Âmbito da Cadeia de Suprimentos Verde: Uma Análise no Setor de Panificação. Fórum Ambiental da Alta Paulista, v. 12, p. 99-111, 2016. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GELDRES, V. V2016GELDRES, V. V ; SOTO, M. ; RAMOS, Heidy Rodriguez ; URIBE, C. T. . Social Capital and International Business Networks: The Case of a Fair Trade Organization. Journal of Accounting &amp; Marketing, v. 5, p. 168, 2016. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATOS, H. T. ; RAMOS, Heidy Rodriguez ; MATOS, F. R. . Gestão pública, desenvolvimento local e o incentivo à formalização de pequenos empreendimentos. Agora (UNC), v. 21, p. 4-21, 2016. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FRANÇA, JOSÉ ULISSES BEZERRA2016FRANÇA, JOSÉ ULISSES BEZERRA ; LAMANO-FERREIRA, ANA PAULA DO NASCIMENTO ; RUIZ, MAURO SILVA ; QUARESMA, CRISTIANO CAPELLANI ; KNIESS, CLAUDIA TEREZINHA ; RAMOS, Heidy Rodriguez ; FERREIRA, MAURÍCIO LAMANO . Conhecimento ecológico sobre unidades de conservação na zona Leste de São Paulo, SP: implicações para sustentabilidade em área urbana. HOLOS (NATAL. ONLINE), v. 3, p. 174-185, 2016. </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ANDRADE, DIEGO CÉSAR TERRA DE2016ANDRADE, DIEGO CÉSAR TERRA DE ; RAMOS, Heidy Rodriguez ; COSTA, DANIELLE MARTINS DUARTE ; OLIVEIRA, DENIS RENATO DE O . A SOCIALIZAÇÃO ORGANIZACIONAL DOS SERVIDORES DE UMA IFES: em tempos de REUNI. Revista da Universidade Vale do Rio Verde, v. 14, p. 670-691, 2016. </t>
   </si>
   <si>
-    <t xml:space="preserve">SOUZA, E. F. G. ; RAMOS, Heidy Rodriguez ; RUIZ, M. S. . A Produção Mais Limpa no Âmbito da Cadeia de Suprimentos Verde: Uma Análise no Setor de Panificação. Fórum Ambiental da Alta Paulista, v. 12, p. 99-111, 2016. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GELDRES, V. V2016GELDRES, V. V ; SOTO, M. ; RAMOS, Heidy Rodriguez ; URIBE, C. T. . Social Capital and International Business Networks: The Case of a Fair Trade Organization. Journal of Accounting &amp; Marketing, v. 5, p. 168, 2016. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATOS, H. T. ; RAMOS, Heidy Rodriguez ; MATOS, F. R. . Gestão pública, desenvolvimento local e o incentivo à formalização de pequenos empreendimentos. Agora (UNC), v. 21, p. 4-21, 2016. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FRANÇA, JOSÉ ULISSES BEZERRA2016FRANÇA, JOSÉ ULISSES BEZERRA ; LAMANO-FERREIRA, ANA PAULA DO NASCIMENTO ; RUIZ, MAURO SILVA ; QUARESMA, CRISTIANO CAPELLANI ; KNIESS, CLAUDIA TEREZINHA ; RAMOS, Heidy Rodriguez ; FERREIRA, MAURÍCIO LAMANO . Conhecimento ecológico sobre unidades de conservação na zona Leste de São Paulo, SP: implicações para sustentabilidade em área urbana. HOLOS (NATAL. ONLINE), v. 3, p. 174-185, 2016. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> PENHA, RENATO2015PENHA, RENATO ; ANDRADE, DIEGO CÉSAR TERRA DE ; KNIESS, CLAUDIA TEREZINHA ; RAMOS, Heidy Rodriguez . Principais Fatores Inibidores E Habilitadores De Criatividade Em Uma Empresa De Tecnologia Da Informação. Revista FSA (Faculdade Santo Agostinho), v. 12, p. 03-19, 2015. </t>
   </si>
   <si>
@@ -610,6 +625,9 @@
     <t xml:space="preserve"> DANTAS, Humberto2018DANTAS, Humberto. Ações de Educação política da KAS nas periferias de São Paulo. CADERNOS ADENAUER (SÃO PAULO), v. 1, p. 141-160, 2018. </t>
   </si>
   <si>
+    <t xml:space="preserve"> DANTAS, Humberto2018DANTAS, Humberto; CHINO, L. . Situações-problema de afronta à democracia: pontos e contrapontos na garantia à democracia. JUSTIÇA ELEITORAL EM DEBATE, v. 8, p. 37-42, 2018. </t>
+  </si>
+  <si>
     <t xml:space="preserve"> DANTAS, Humberto2017DANTAS, Humberto; OLIVEIRA, V. . Incerteza eleitoral e reforma: a pedra no caminho das elites políticas. CADERNOS ADENAUER (SÃO PAULO), v. 4, p. 9-28, 2017. </t>
   </si>
   <si>
@@ -649,6 +667,9 @@
     <t xml:space="preserve"> DANTAS, Humberto2015DANTAS, Humberto; THEMOTEO, R. . Apresentação. Cadernos ADENAUER (São Paulo), v. 1, p. 7-12, 2015. </t>
   </si>
   <si>
+    <t xml:space="preserve"> DANTAS, Humberto2015DANTAS, Humberto; BARBOSA, C. R. . O papel do Legislativo na realidade estadual: um estudo de caso a partir da Linha 4 ? Amarela do Metrô. Agenda Política, v. 3, p. 43-63, 2015. </t>
+  </si>
+  <si>
     <t xml:space="preserve"> DANTAS, Humberto2015DANTAS, Humberto; PITTA, I. . 2014 en Brasil: Mundial y elecciones como hechos principales. Índice de Desarrollo Democrático de América Latina, v. 14, p. 87-91, 2015. </t>
   </si>
   <si>
@@ -661,9 +682,6 @@
     <t xml:space="preserve"> DANTAS, Humberto2015DANTAS, Humberto. Reforma Política e mecanismos de participação cidadã: desafios e limites. Revista Parlamento e Sociedade, v. 3, p. 107-122, 2015. </t>
   </si>
   <si>
-    <t xml:space="preserve"> DANTAS, Humberto2015DANTAS, Humberto; BARBOSA, C. R. . O papel do Legislativo na realidade estadual: um estudo de caso a partir da Linha 4 ? Amarela do Metrô. Agenda Política, v. 3, p. 43-63, 2015. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> DANTAS, Humberto2014DANTAS, Humberto; ROSA, Marcelo Augusto ; OLIVEIRA, S. . Formação acadêmica e Direito Eleitoral: do ostracismo à novidade. Cadernos ADENAUER (São Paulo), v. 001, p. 45-62, 2014. </t>
   </si>
   <si>
@@ -871,6 +889,12 @@
     <t xml:space="preserve">RIBEIRO, L. ; FERNANDES, A. ; PERPETUO, F. C. ; SANTOS, L. S. ; STOROPOLI, J. E. . Strategic Leadership: Top Executives and Their Effects on Organization - Uma Resenha Crítica de Finkelstein e Hambrick. REVISTA IBEROAMERICANA DE ESTRATÉGIA, v. 17, p. 146-158, 2018. </t>
   </si>
   <si>
+    <t xml:space="preserve">HSU, P. L. ; MACCARI, E. A. ; MAZIERI, M. ; STOROPOLI, J. E. . A bibliometric review of institutional theory on higher education institutions. Future Studies Research Journal - Future, v. 10, p. 20-38, 2018. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACCARI, E. A. ; HSU, P. L. ; STOROPOLI, J. E. ; SILVA, A. O. . Influence of the directives of the wide field of applied sciences guidelines on Qualis scientific management journals. Revista de administração da UFSM, v. 11, p. 721-735, 2018. </t>
+  </si>
+  <si>
     <t xml:space="preserve">CARNEIRO, C. A. ; GUIMARAES, E. H. R. ; MACCARI, E. A. ; STOROPOLI, J. E. . Estudo do Comportamento Empreendedor de Gestores em uma Instituição Pública de Ensino. Revista Ciências Administrativas, v. 23, p. 385-399, 2017. </t>
   </si>
   <si>
@@ -880,15 +904,15 @@
     <t xml:space="preserve">OLIVEIRA, M. R. A. ; GIROLETTI, D. ; MACCARI, E. A. ; STOROPOLI, J. E. . Technology Transfer From The University of Minas Gerais to a Private Company: Process and Results. International Journal of Innovation, v. 4, p. 208-219, 2016. </t>
   </si>
   <si>
+    <t xml:space="preserve">CAMPOS, T. M. ; STOROPOLI, J. E. . Aplicação de coaching em empresas: um meta estudo sobre e evolução das pesquisas em um periódico internacional especializado. Revista Administração em Diálogo - RAD, v. 17, p. 23-40, 2015. </t>
+  </si>
+  <si>
     <t xml:space="preserve">STOROPOLI, J. E.; PEREIRA, C. R. ; SILVA, M. A. ; RODRIGUEZ, L. C. . AMBIDESTERIDADE ORGANIZACIONAL E O TAMANHO DA EMPRESA. Iberoamerican Journal of Industrial Engineering, v. 7, p. 2-17, 2015. </t>
   </si>
   <si>
     <t xml:space="preserve">STOROPOLI, J. E.; MACCARI, E. A. ; MARTINS, C. B. ; BINDER, M. P. . O desenvolvimento de capacidades e recursos em incubadoras de empresas. REVISTA CIÊNCIAS ADMINISTRATIVAS (UNIFOR), v. 20, p. 68-94, 2015. </t>
   </si>
   <si>
-    <t xml:space="preserve">CAMPOS, T. M. ; STOROPOLI, J. E. . Aplicação de coaching em empresas: um meta estudo sobre e evolução das pesquisas em um periódico internacional especializado. Revista Administração em Diálogo - RAD, v. 17, p. 23-40, 2015. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> FERREIRA, Manuel Portugal ; STOROPOLI, J. E. ; SERRA, F. R. . Extant research on strategic alliances: A bibliometric study of the past two decades. RAC. REVISTA DE ADMINISTRAÇÃO CONTEMPORÂNEA (ONLINE), v. 18, p. 109-133, 2014. </t>
   </si>
   <si>
@@ -991,15 +1015,15 @@
     <t xml:space="preserve">FRANCA, J. U. B. ; LAMANO-FERREIRA, A. P. N. ; RUIZ, M. S. ; QUARESMA, C. C. ; KNIESS, C. T. ; RAMOS, H. R. ; FERREIRA, M. L. . Ecological knowledge about protected areas in the east zone of São Paulo, SP: implications for sustainability in urban area. Holos (Natal. Online), v. 3, p. 174-185, 2016. </t>
   </si>
   <si>
+    <t xml:space="preserve">RUIZ, M. S. ; QUARESMA, C. C. ; SANTOS, A. B. ; OGASHAWARA, I. ; FERREIRA, M. L. ; CORTESE, T. T. P. . FAIRS OF SCIENCE AS ENCOURAGEMENT TO THE DEVELOPMENT OF ENVIRONMENTAL PERCEPTION OF ELEMENTARY AND HIGH SCHOOL STUDENTS. Holos (Natal. Online), v. 4, p. 299-312, 2016. </t>
+  </si>
+  <si>
     <t xml:space="preserve"> TAVARES, ARMANDO R ; FERREIRA, MAURICIO L ; JOCYS, TERESA ; KANASHIRO, SHOEY ; SILVA, KARINA G . Urea concentration on vegetative development and nutrition of Cactaceae epiphytic species. Horticultura Brasileira (Impresso), v. 34, p. 340-345, 2016. </t>
   </si>
   <si>
     <t xml:space="preserve">RUIZ, M. S. ; BERNARDELLI JR., J. M. ; QUARESMA, C. C. ; FERREIRA, M. L. . Conflitos Socioambientais Urbanos: Um Estudo Prospectivo na Região Metropolitana de São Paulo. Revista de Gestão e Secretariado, v. 7, p. 21-54, 2016. </t>
   </si>
   <si>
-    <t xml:space="preserve">RUIZ, M. S. ; QUARESMA, C. C. ; SANTOS, A. B. ; OGASHAWARA, I. ; FERREIRA, M. L. ; CORTESE, T. T. P. . FAIRS OF SCIENCE AS ENCOURAGEMENT TO THE DEVELOPMENT OF ENVIRONMENTAL PERCEPTION OF ELEMENTARY AND HIGH SCHOOL STUDENTS. Holos (Natal. Online), v. 4, p. 299-312, 2016. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ferreira, M. L.; Uchiyama, E. A. . Litterfall assessement in a fragment of secondary tropical forest, Ibiuna, SP, Southeastern Brazil. Revista Árvore (Impresso), v. 39, p. 791-799, 2015. </t>
   </si>
   <si>
@@ -1087,12 +1111,15 @@
     <t xml:space="preserve">HIRATA, D. ; Claudia Kniess ; CORTESE, Tatiana Tucunduva Philippi ; QUONIAM, L. . O USO DE INFORMAÇÕES PATENTÁRIAS PARA A VALORIZAÇÃO DE RESÍDUOS INDUSTRIAIS: O CASO DO LODO DE TRATAMENTO DE ESGOTO DOMÉSTICO. Revista de Ciências da Administração, v. 1, p. 55, 2015. </t>
   </si>
   <si>
+    <t xml:space="preserve"> LEVY, Wilson2018LEVY, Wilson; NALINI, J. R. . Cidade e regulação: os mecanismos fiscais e urbanísticos de controle e captura de mais-valias urbanas na legislação urbanística brasileira. REVISTA DE DIREITO DA CIDADE, v. 10, p. 1077-1094, 2018. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRANDINI, B. C. ; LEVY, Wilson ; LEITE, D. T. C. ; SHIBAO, F. Y. . Fossa biodigestora: lições aprendidas na instalação de dois projetos em zonas rurais. Revista Competitividade e Sustentabilidade, v. 5, p. 64-72, 2018. </t>
+  </si>
+  <si>
     <t xml:space="preserve">BECK, D. F. ; LEVY, Wilson . A importância do Arquivo Público para a construção de cidades inteligentes e sustentáveis. Revista do Arquivo, v. 1, p. 78-79, 2018. </t>
   </si>
   <si>
-    <t xml:space="preserve"> LEVY, Wilson2018LEVY, Wilson; NALINI, J. R. . Cidade e regulação: os mecanismos fiscais e urbanísticos de controle e captura de mais-valias urbanas na legislação urbanística brasileira. REVISTA DE DIREITO DA CIDADE, v. 10, p. 1077-1094, 2018. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> LEVY, Wilson2017LEVY, Wilson. A criação de varas especializadas e câmaras reservadas em conflitos fundiários urbanos e agrários no Tribunal de Justiça do Estado de São Paulo: um parecer. Arquitextos (São Paulo), v. 200.02, p. 1, 2017. </t>
   </si>
   <si>
@@ -1138,15 +1165,15 @@
     <t xml:space="preserve">ALMEIDA, A. J. ; ROCHA, Eduardo Gonçalves ; SENA, J. ; ÁVILA, Jordana Ribeiro ; GALVÃO, Mariana Teresa ; LEVY, Wilson . Caleidoscópio Waratiano. Novos Direitos, v. 2, p. 15-26, 2011. </t>
   </si>
   <si>
+    <t xml:space="preserve"> LEVY, Wilson;Levy, Wilson2010LEVY, Wilson. Da crítica da dogmática jurídica à hermenêutica constitucional: reflexões sobre a (in)eficácia das normas de proteção do meio ambiente saudável. Revista Brasileira de Direito Processual (Impresso), v. 71, p. 91-111, 2010. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">v31n60p341. Sequencia, v. 31, p. 341-370, 2010. </t>
+  </si>
+  <si>
     <t xml:space="preserve">NALINI, J. R. ; LEVY, Wilson . Interdisciplinaridade e Direitos Fundamentais: Reflexões para uma Nova Metodologia do Ensino do Direito Ambiental. Revista dos Tribunais (São Paulo. Impresso), v. 894, p. 29-48, 2010. </t>
   </si>
   <si>
-    <t xml:space="preserve"> LEVY, Wilson;Levy, Wilson2010LEVY, Wilson. Da crítica da dogmática jurídica à hermenêutica constitucional: reflexões sobre a (in)eficácia das normas de proteção do meio ambiente saudável. Revista Brasileira de Direito Processual (Impresso), v. 71, p. 91-111, 2010. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">v31n60p341. Sequencia, v. 31, p. 341-370, 2010. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> LEVY, Wilson;Levy, Wilson2008LEVY, Wilson. As Relações entre Esfera Pública e Democracia no Pensamento de Jürgen Habermas. Direito, Estado e Sociedade, v. 32, p. 219-238, 2008. </t>
   </si>
   <si>
@@ -1171,6 +1198,9 @@
     <t>0025-326X</t>
   </si>
   <si>
+    <t>2316-3712</t>
+  </si>
+  <si>
     <t>0013-9351</t>
   </si>
   <si>
@@ -1243,36 +1273,36 @@
     <t>1984-4883</t>
   </si>
   <si>
+    <t>1809-4120</t>
+  </si>
+  <si>
+    <t>1682-9387</t>
+  </si>
+  <si>
+    <t>2179-748X</t>
+  </si>
+  <si>
+    <t>1677-8642</t>
+  </si>
+  <si>
+    <t>2175-974X</t>
+  </si>
+  <si>
+    <t>1676-6679</t>
+  </si>
+  <si>
     <t>0102-8979</t>
   </si>
   <si>
-    <t>1682-9387</t>
-  </si>
-  <si>
-    <t>2179-748X</t>
-  </si>
-  <si>
-    <t>1677-8642</t>
-  </si>
-  <si>
-    <t>2175-974X</t>
-  </si>
-  <si>
-    <t>1809-4120</t>
-  </si>
-  <si>
-    <t>1676-6679</t>
+    <t>2175-3369</t>
+  </si>
+  <si>
+    <t>0103-0116</t>
   </si>
   <si>
     <t>1519-7654</t>
   </si>
   <si>
-    <t>2175-3369</t>
-  </si>
-  <si>
-    <t>0103-0116</t>
-  </si>
-  <si>
     <t>1980-8380</t>
   </si>
   <si>
@@ -1333,15 +1363,18 @@
     <t>1809-239X</t>
   </si>
   <si>
+    <t>1913-9004</t>
+  </si>
+  <si>
     <t>1981-1764</t>
   </si>
   <si>
-    <t>1913-9004</t>
-  </si>
-  <si>
     <t>1984-8625</t>
   </si>
   <si>
+    <t>2316-2058</t>
+  </si>
+  <si>
     <t>1980-2668</t>
   </si>
   <si>
@@ -1378,15 +1411,15 @@
     <t>1980-6965</t>
   </si>
   <si>
+    <t>2168-9601</t>
+  </si>
+  <si>
+    <t>0104-7507</t>
+  </si>
+  <si>
     <t>1517-0276</t>
   </si>
   <si>
-    <t>2168-9601</t>
-  </si>
-  <si>
-    <t>0104-7507</t>
-  </si>
-  <si>
     <t>1806-6356</t>
   </si>
   <si>
@@ -1417,6 +1450,9 @@
     <t>1519-0951</t>
   </si>
   <si>
+    <t>2317-7144</t>
+  </si>
+  <si>
     <t>2318-4248</t>
   </si>
   <si>
@@ -1429,15 +1465,15 @@
     <t>0101-3459</t>
   </si>
   <si>
+    <t>2318-8499</t>
+  </si>
+  <si>
     <t>2446-600X</t>
   </si>
   <si>
     <t>2317-3254</t>
   </si>
   <si>
-    <t>2318-8499</t>
-  </si>
-  <si>
     <t>2237-2938</t>
   </si>
   <si>
@@ -1528,9 +1564,6 @@
     <t>2178-0080</t>
   </si>
   <si>
-    <t>2316-3712</t>
-  </si>
-  <si>
     <t>1677-6976</t>
   </si>
   <si>
@@ -1636,12 +1669,15 @@
     <t>2175-8077</t>
   </si>
   <si>
+    <t>1809-6077</t>
+  </si>
+  <si>
+    <t>2359-5876</t>
+  </si>
+  <si>
     <t>2447-908X</t>
   </si>
   <si>
-    <t>1809-6077</t>
-  </si>
-  <si>
     <t>2447-2042</t>
   </si>
   <si>
@@ -1690,6 +1726,9 @@
     <t>MARINE POLLUTION BULLETIN.</t>
   </si>
   <si>
+    <t>REVISTA DE GESTÃO EM SISTEMAS DE SAÚDE</t>
+  </si>
+  <si>
     <t>ENVIRONMENTAL RESEARCH (NEW YORK, N.Y. PRINT)</t>
   </si>
   <si>
@@ -1726,18 +1765,18 @@
     <t>ARQ.URB</t>
   </si>
   <si>
+    <t>CADERNOS DE PÓS GRADUAÇÃO EM ARQUITETURA E URBANISMO (MACKENZIE. ONLINE)</t>
+  </si>
+  <si>
     <t>VIRUS</t>
   </si>
   <si>
-    <t>CADERNOS DE PÓS GRADUAÇÃO EM ARQUITETURA E URBANISMO (MACKENZIE. ONLINE)</t>
+    <t>URBE. REVISTA BRASILEIRA DE GESTÃO URBANA</t>
   </si>
   <si>
     <t>COMCIÊNCIA (UNICAMP)</t>
   </si>
   <si>
-    <t>URBE. REVISTA BRASILEIRA DE GESTÃO URBANA</t>
-  </si>
-  <si>
     <t>ARQUITEXTOS (SÃO PAULO)</t>
   </si>
   <si>
@@ -1771,6 +1810,9 @@
     <t>REVISTA BRASILEIRA DE GESTÃO E DESENVOLVIMENTO REGIONAL</t>
   </si>
   <si>
+    <t>REGEPE - REVISTA DE EMPREENDEDORISMO E GESTÃO DE PEQUENAS EMPRESAS</t>
+  </si>
+  <si>
     <t>ENSAIOS FEE (ONLINE)</t>
   </si>
   <si>
@@ -1807,15 +1849,15 @@
     <t>REVISTA ACADÊMICA OBSERVATÓRIO DE INOVAÇÃO DO TURISMO</t>
   </si>
   <si>
+    <t>JOURNAL OF ACCOUNTING &amp; MARKETING</t>
+  </si>
+  <si>
+    <t>AGORA (UNC)</t>
+  </si>
+  <si>
     <t>REVISTA DA UNIVERSIDADE VALE DO RIO VERDE</t>
   </si>
   <si>
-    <t>JOURNAL OF ACCOUNTING &amp; MARKETING</t>
-  </si>
-  <si>
-    <t>AGORA (UNC)</t>
-  </si>
-  <si>
     <t>REVISTA ECONOMIA &amp; GESTÃO</t>
   </si>
   <si>
@@ -1891,9 +1933,6 @@
     <t>REVISTA GESTÃO UNIVERSITÁRIA NA AMÉRICA LATINA - GUAL</t>
   </si>
   <si>
-    <t>REVISTA DE GESTÃO EM SISTEMAS DE SAÚDE</t>
-  </si>
-  <si>
     <t>CADERNO VIRTUAL DE TURISMO (UFRJ)</t>
   </si>
   <si>
@@ -1948,6 +1987,9 @@
     <t>A2</t>
   </si>
   <si>
+    <t>B3</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
@@ -1955,9 +1997,6 @@
   </si>
   <si>
     <t>B4</t>
-  </si>
-  <si>
-    <t>B3</t>
   </si>
   <si>
     <t>B5</t>
@@ -2324,7 +2363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H376"/>
+  <dimension ref="A1:H386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2364,16 +2403,16 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="F2" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="G2" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="H2">
         <v>85</v>
@@ -2390,16 +2429,16 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="F3" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="G3" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="H3">
         <v>85</v>
@@ -2413,22 +2452,22 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="F4" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="G4" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2439,22 +2478,22 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="F5" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="G5" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="H5">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2471,7 +2510,16 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>387</v>
+        <v>395</v>
+      </c>
+      <c r="F6" t="s">
+        <v>571</v>
+      </c>
+      <c r="G6" t="s">
+        <v>658</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2488,16 +2536,16 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="F7" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="G7" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2514,16 +2562,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>389</v>
-      </c>
-      <c r="F8" t="s">
-        <v>561</v>
-      </c>
-      <c r="G8" t="s">
-        <v>646</v>
-      </c>
-      <c r="H8">
-        <v>20</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2534,19 +2573,19 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F9" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="G9" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -2560,22 +2599,22 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="F10" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="G10" t="s">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="H10">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2592,16 +2631,16 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="F11" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="G11" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="H11">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2615,19 +2654,19 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F12" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="G12" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="H12">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2641,10 +2680,19 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>392</v>
+        <v>401</v>
+      </c>
+      <c r="F13" t="s">
+        <v>576</v>
+      </c>
+      <c r="G13" t="s">
+        <v>657</v>
+      </c>
+      <c r="H13">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2655,22 +2703,22 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="F14" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="G14" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="H14">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2681,22 +2729,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>384</v>
-      </c>
-      <c r="F15" t="s">
-        <v>557</v>
-      </c>
-      <c r="G15" t="s">
-        <v>643</v>
-      </c>
-      <c r="H15">
-        <v>85</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2707,19 +2746,19 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="F16" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="G16" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="H16">
         <v>85</v>
@@ -2733,19 +2772,19 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="F17" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="G17" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="H17">
         <v>85</v>
@@ -2765,16 +2804,16 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="F18" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="G18" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="H18">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2785,13 +2824,22 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>395</v>
+        <v>393</v>
+      </c>
+      <c r="F19" t="s">
+        <v>569</v>
+      </c>
+      <c r="G19" t="s">
+        <v>656</v>
+      </c>
+      <c r="H19">
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2802,10 +2850,22 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>404</v>
+      </c>
+      <c r="F20" t="s">
+        <v>579</v>
+      </c>
+      <c r="G20" t="s">
+        <v>657</v>
+      </c>
+      <c r="H20">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2822,16 +2882,7 @@
         <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>396</v>
-      </c>
-      <c r="F21" t="s">
-        <v>567</v>
-      </c>
-      <c r="G21" t="s">
-        <v>644</v>
-      </c>
-      <c r="H21">
-        <v>100</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2847,9 +2898,6 @@
       <c r="D22" t="s">
         <v>64</v>
       </c>
-      <c r="E22" t="s">
-        <v>397</v>
-      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
@@ -2865,7 +2913,16 @@
         <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>398</v>
+        <v>406</v>
+      </c>
+      <c r="F23" t="s">
+        <v>580</v>
+      </c>
+      <c r="G23" t="s">
+        <v>658</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2876,13 +2933,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2893,13 +2950,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2916,7 +2973,7 @@
         <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2933,7 +2990,7 @@
         <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2950,16 +3007,7 @@
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>400</v>
-      </c>
-      <c r="F28" t="s">
-        <v>568</v>
-      </c>
-      <c r="G28" t="s">
-        <v>647</v>
-      </c>
-      <c r="H28">
-        <v>40</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2970,13 +3018,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2987,13 +3035,22 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>402</v>
+        <v>410</v>
+      </c>
+      <c r="F30" t="s">
+        <v>581</v>
+      </c>
+      <c r="G30" t="s">
+        <v>657</v>
+      </c>
+      <c r="H30">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3010,16 +3067,7 @@
         <v>73</v>
       </c>
       <c r="E31" t="s">
-        <v>384</v>
-      </c>
-      <c r="F31" t="s">
-        <v>557</v>
-      </c>
-      <c r="G31" t="s">
-        <v>643</v>
-      </c>
-      <c r="H31">
-        <v>85</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3036,7 +3084,7 @@
         <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3053,7 +3101,16 @@
         <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>403</v>
+        <v>393</v>
+      </c>
+      <c r="F33" t="s">
+        <v>569</v>
+      </c>
+      <c r="G33" t="s">
+        <v>656</v>
+      </c>
+      <c r="H33">
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3064,13 +3121,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
         <v>76</v>
       </c>
       <c r="E34" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3081,13 +3138,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
         <v>77</v>
       </c>
       <c r="E35" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3098,13 +3155,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
         <v>78</v>
       </c>
       <c r="E36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3115,10 +3172,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
         <v>79</v>
+      </c>
+      <c r="E37" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3129,13 +3189,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3143,25 +3203,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" t="s">
-        <v>404</v>
-      </c>
-      <c r="F39" t="s">
-        <v>569</v>
-      </c>
-      <c r="G39" t="s">
-        <v>648</v>
-      </c>
-      <c r="H39">
-        <v>10</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3169,13 +3217,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E40" t="s">
         <v>405</v>
@@ -3194,6 +3242,18 @@
       <c r="D41" t="s">
         <v>82</v>
       </c>
+      <c r="E41" t="s">
+        <v>414</v>
+      </c>
+      <c r="F41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G41" t="s">
+        <v>661</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1">
@@ -3203,13 +3263,13 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
         <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3220,13 +3280,10 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
         <v>84</v>
-      </c>
-      <c r="E43" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3237,13 +3294,13 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
         <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3260,7 +3317,7 @@
         <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3271,13 +3328,13 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
         <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3294,7 +3351,7 @@
         <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3311,7 +3368,7 @@
         <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3322,13 +3379,22 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
         <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>408</v>
+        <v>419</v>
+      </c>
+      <c r="F49" t="s">
+        <v>583</v>
+      </c>
+      <c r="G49" t="s">
+        <v>662</v>
+      </c>
+      <c r="H49">
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3345,7 +3411,7 @@
         <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3362,7 +3428,7 @@
         <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3379,7 +3445,7 @@
         <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3396,7 +3462,7 @@
         <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3407,22 +3473,13 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
         <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>413</v>
-      </c>
-      <c r="F54" t="s">
-        <v>570</v>
-      </c>
-      <c r="G54" t="s">
-        <v>648</v>
-      </c>
-      <c r="H54">
-        <v>10</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3439,13 +3496,13 @@
         <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="F55" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="G55" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="H55">
         <v>10</v>
@@ -3465,16 +3522,16 @@
         <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="F56" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="G56" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="H56">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3485,13 +3542,22 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
         <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>415</v>
+        <v>419</v>
+      </c>
+      <c r="F57" t="s">
+        <v>583</v>
+      </c>
+      <c r="G57" t="s">
+        <v>662</v>
+      </c>
+      <c r="H57">
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3508,7 +3574,7 @@
         <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3519,13 +3585,13 @@
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" t="s">
         <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3536,22 +3602,13 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
         <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>416</v>
-      </c>
-      <c r="F60" t="s">
-        <v>572</v>
-      </c>
-      <c r="G60" t="s">
-        <v>646</v>
-      </c>
-      <c r="H60">
-        <v>20</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3568,13 +3625,13 @@
         <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="F61" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="G61" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="H61">
         <v>85</v>
@@ -3594,7 +3651,7 @@
         <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3611,7 +3668,7 @@
         <v>104</v>
       </c>
       <c r="E63" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3622,13 +3679,22 @@
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D64" t="s">
         <v>105</v>
       </c>
       <c r="E64" t="s">
-        <v>419</v>
+        <v>428</v>
+      </c>
+      <c r="F64" t="s">
+        <v>586</v>
+      </c>
+      <c r="G64" t="s">
+        <v>660</v>
+      </c>
+      <c r="H64">
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3645,7 +3711,7 @@
         <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3662,7 +3728,7 @@
         <v>107</v>
       </c>
       <c r="E66" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3679,7 +3745,7 @@
         <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3690,13 +3756,13 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D68" t="s">
         <v>109</v>
       </c>
       <c r="E68" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3713,7 +3779,7 @@
         <v>110</v>
       </c>
       <c r="E69" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3724,10 +3790,13 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D70" t="s">
         <v>111</v>
+      </c>
+      <c r="E70" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3743,18 +3812,6 @@
       <c r="D71" t="s">
         <v>112</v>
       </c>
-      <c r="E71" t="s">
-        <v>424</v>
-      </c>
-      <c r="F71" t="s">
-        <v>574</v>
-      </c>
-      <c r="G71" t="s">
-        <v>647</v>
-      </c>
-      <c r="H71">
-        <v>40</v>
-      </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1">
@@ -3764,10 +3821,22 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
         <v>113</v>
+      </c>
+      <c r="E72" t="s">
+        <v>434</v>
+      </c>
+      <c r="F72" t="s">
+        <v>587</v>
+      </c>
+      <c r="G72" t="s">
+        <v>657</v>
+      </c>
+      <c r="H72">
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3783,18 +3852,6 @@
       <c r="D73" t="s">
         <v>114</v>
       </c>
-      <c r="E73" t="s">
-        <v>424</v>
-      </c>
-      <c r="F73" t="s">
-        <v>574</v>
-      </c>
-      <c r="G73" t="s">
-        <v>647</v>
-      </c>
-      <c r="H73">
-        <v>40</v>
-      </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1">
@@ -3810,13 +3867,13 @@
         <v>115</v>
       </c>
       <c r="E74" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="F74" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="G74" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="H74">
         <v>40</v>
@@ -3836,7 +3893,16 @@
         <v>116</v>
       </c>
       <c r="E75" t="s">
-        <v>415</v>
+        <v>434</v>
+      </c>
+      <c r="F75" t="s">
+        <v>587</v>
+      </c>
+      <c r="G75" t="s">
+        <v>657</v>
+      </c>
+      <c r="H75">
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3847,10 +3913,13 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D76" t="s">
         <v>117</v>
+      </c>
+      <c r="E76" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3875,7 +3944,7 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D78" t="s">
         <v>119</v>
@@ -3889,22 +3958,10 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D79" t="s">
         <v>120</v>
-      </c>
-      <c r="E79" t="s">
-        <v>424</v>
-      </c>
-      <c r="F79" t="s">
-        <v>574</v>
-      </c>
-      <c r="G79" t="s">
-        <v>647</v>
-      </c>
-      <c r="H79">
-        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3915,13 +3972,22 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D80" t="s">
         <v>121</v>
       </c>
       <c r="E80" t="s">
-        <v>425</v>
+        <v>434</v>
+      </c>
+      <c r="F80" t="s">
+        <v>587</v>
+      </c>
+      <c r="G80" t="s">
+        <v>657</v>
+      </c>
+      <c r="H80">
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3932,10 +3998,13 @@
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D81" t="s">
         <v>122</v>
+      </c>
+      <c r="E81" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3952,7 +4021,7 @@
         <v>123</v>
       </c>
       <c r="E82" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3963,7 +4032,7 @@
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D83" t="s">
         <v>124</v>
@@ -3977,13 +4046,10 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D84" t="s">
         <v>125</v>
-      </c>
-      <c r="E84" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3999,6 +4065,9 @@
       <c r="D85" t="s">
         <v>126</v>
       </c>
+      <c r="E85" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1">
@@ -4008,13 +4077,10 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D86" t="s">
         <v>127</v>
-      </c>
-      <c r="E86" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4031,7 +4097,7 @@
         <v>128</v>
       </c>
       <c r="E87" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4042,13 +4108,13 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D88" t="s">
         <v>129</v>
       </c>
       <c r="E88" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4065,7 +4131,7 @@
         <v>130</v>
       </c>
       <c r="E89" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4076,13 +4142,13 @@
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D90" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="E90" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4093,13 +4159,13 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E91" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4110,13 +4176,13 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D92" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E92" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4124,16 +4190,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4150,16 +4216,7 @@
         <v>132</v>
       </c>
       <c r="E94" t="s">
-        <v>428</v>
-      </c>
-      <c r="F94" t="s">
-        <v>575</v>
-      </c>
-      <c r="G94" t="s">
-        <v>649</v>
-      </c>
-      <c r="H94">
-        <v>50</v>
+        <v>437</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4175,6 +4232,18 @@
       <c r="D95" t="s">
         <v>133</v>
       </c>
+      <c r="E95" t="s">
+        <v>438</v>
+      </c>
+      <c r="F95" t="s">
+        <v>588</v>
+      </c>
+      <c r="G95" t="s">
+        <v>662</v>
+      </c>
+      <c r="H95">
+        <v>50</v>
+      </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1">
@@ -4184,22 +4253,10 @@
         <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
         <v>134</v>
-      </c>
-      <c r="E96" t="s">
-        <v>429</v>
-      </c>
-      <c r="F96" t="s">
-        <v>576</v>
-      </c>
-      <c r="G96" t="s">
-        <v>648</v>
-      </c>
-      <c r="H96">
-        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4210,13 +4267,10 @@
         <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D97" t="s">
         <v>135</v>
-      </c>
-      <c r="E97" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4233,16 +4287,16 @@
         <v>136</v>
       </c>
       <c r="E98" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="F98" t="s">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="G98" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="H98">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4259,7 +4313,7 @@
         <v>137</v>
       </c>
       <c r="E99" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4270,22 +4324,22 @@
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s">
         <v>138</v>
       </c>
       <c r="E100" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="F100" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G100" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="H100">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4296,22 +4350,13 @@
         <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D101" t="s">
         <v>139</v>
       </c>
       <c r="E101" t="s">
-        <v>432</v>
-      </c>
-      <c r="F101" t="s">
-        <v>578</v>
-      </c>
-      <c r="G101" t="s">
-        <v>645</v>
-      </c>
-      <c r="H101">
-        <v>70</v>
+        <v>440</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4328,16 +4373,16 @@
         <v>140</v>
       </c>
       <c r="E102" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="F102" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="G102" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="H102">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4354,13 +4399,13 @@
         <v>141</v>
       </c>
       <c r="E103" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F103" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="G103" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="H103">
         <v>70</v>
@@ -4380,16 +4425,16 @@
         <v>142</v>
       </c>
       <c r="E104" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="F104" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="G104" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="H104">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4406,16 +4451,16 @@
         <v>143</v>
       </c>
       <c r="E105" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F105" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="G105" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="H105">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4426,19 +4471,22 @@
         <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D106" t="s">
         <v>144</v>
       </c>
       <c r="E106" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="F106" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="G106" t="s">
-        <v>650</v>
+        <v>661</v>
+      </c>
+      <c r="H106">
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4449,19 +4497,22 @@
         <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D107" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E107" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F107" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="G107" t="s">
-        <v>650</v>
+        <v>661</v>
+      </c>
+      <c r="H107">
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4472,13 +4523,19 @@
         <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E108" t="s">
-        <v>436</v>
+        <v>445</v>
+      </c>
+      <c r="F108" t="s">
+        <v>594</v>
+      </c>
+      <c r="G108" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4489,22 +4546,19 @@
         <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D109" t="s">
         <v>146</v>
       </c>
       <c r="E109" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="F109" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="G109" t="s">
-        <v>646</v>
-      </c>
-      <c r="H109">
-        <v>20</v>
+        <v>663</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4512,16 +4566,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D110" t="s">
         <v>147</v>
       </c>
       <c r="E110" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4529,25 +4583,25 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D111" t="s">
         <v>148</v>
       </c>
       <c r="E111" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="F111" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="G111" t="s">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="H111">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4558,13 +4612,13 @@
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D112" t="s">
         <v>149</v>
       </c>
       <c r="E112" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4575,13 +4629,22 @@
         <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D113" t="s">
         <v>150</v>
       </c>
       <c r="E113" t="s">
-        <v>439</v>
+        <v>448</v>
+      </c>
+      <c r="F113" t="s">
+        <v>597</v>
+      </c>
+      <c r="G113" t="s">
+        <v>656</v>
+      </c>
+      <c r="H113">
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4592,13 +4655,22 @@
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D114" t="s">
         <v>151</v>
       </c>
       <c r="E114" t="s">
-        <v>440</v>
+        <v>410</v>
+      </c>
+      <c r="F114" t="s">
+        <v>581</v>
+      </c>
+      <c r="G114" t="s">
+        <v>657</v>
+      </c>
+      <c r="H114">
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4609,13 +4681,13 @@
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D115" t="s">
         <v>152</v>
       </c>
       <c r="E115" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4626,13 +4698,13 @@
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D116" t="s">
         <v>153</v>
       </c>
       <c r="E116" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4643,13 +4715,13 @@
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D117" t="s">
         <v>154</v>
       </c>
       <c r="E117" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4660,10 +4732,13 @@
         <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D118" t="s">
         <v>155</v>
+      </c>
+      <c r="E118" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4674,13 +4749,13 @@
         <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D119" t="s">
         <v>156</v>
       </c>
       <c r="E119" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4691,13 +4766,13 @@
         <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D120" t="s">
         <v>157</v>
       </c>
       <c r="E120" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4708,13 +4783,10 @@
         <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D121" t="s">
         <v>158</v>
-      </c>
-      <c r="E121" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4722,25 +4794,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D122" t="s">
         <v>159</v>
       </c>
       <c r="E122" t="s">
-        <v>389</v>
-      </c>
-      <c r="F122" t="s">
-        <v>561</v>
-      </c>
-      <c r="G122" t="s">
-        <v>646</v>
-      </c>
-      <c r="H122">
-        <v>20</v>
+        <v>440</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4748,25 +4811,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D123" t="s">
         <v>160</v>
       </c>
       <c r="E123" t="s">
-        <v>442</v>
-      </c>
-      <c r="F123" t="s">
-        <v>585</v>
-      </c>
-      <c r="G123" t="s">
-        <v>646</v>
-      </c>
-      <c r="H123">
-        <v>20</v>
+        <v>440</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4774,16 +4828,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D124" t="s">
         <v>161</v>
       </c>
       <c r="E124" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4794,22 +4848,22 @@
         <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D125" t="s">
         <v>162</v>
       </c>
       <c r="E125" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="F125" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="G125" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="H125">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4826,16 +4880,16 @@
         <v>163</v>
       </c>
       <c r="E126" t="s">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="F126" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="G126" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="H126">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4849,19 +4903,19 @@
         <v>20</v>
       </c>
       <c r="D127" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E127" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F127" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="G127" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="H127">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4875,19 +4929,10 @@
         <v>20</v>
       </c>
       <c r="D128" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E128" t="s">
-        <v>446</v>
-      </c>
-      <c r="F128" t="s">
-        <v>588</v>
-      </c>
-      <c r="G128" t="s">
-        <v>647</v>
-      </c>
-      <c r="H128">
-        <v>40</v>
+        <v>454</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4898,22 +4943,22 @@
         <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D129" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E129" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F129" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="G129" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="H129">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4924,22 +4969,22 @@
         <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D130" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E130" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="F130" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="G130" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="H130">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4950,19 +4995,19 @@
         <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D131" t="s">
         <v>167</v>
       </c>
       <c r="E131" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="F131" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="G131" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="H131">
         <v>40</v>
@@ -4976,19 +5021,19 @@
         <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D132" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E132" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="F132" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="G132" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="H132">
         <v>40</v>
@@ -5002,22 +5047,22 @@
         <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D133" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E133" t="s">
-        <v>450</v>
+        <v>399</v>
       </c>
       <c r="F133" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="G133" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="H133">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5031,16 +5076,16 @@
         <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E134" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="F134" t="s">
-        <v>568</v>
+        <v>603</v>
       </c>
       <c r="G134" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="H134">
         <v>40</v>
@@ -5057,16 +5102,16 @@
         <v>21</v>
       </c>
       <c r="D135" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E135" t="s">
-        <v>388</v>
+        <v>459</v>
       </c>
       <c r="F135" t="s">
-        <v>560</v>
+        <v>604</v>
       </c>
       <c r="G135" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="H135">
         <v>100</v>
@@ -5080,19 +5125,19 @@
         <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E136" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="F136" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="G136" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="H136">
         <v>40</v>
@@ -5106,19 +5151,19 @@
         <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D137" t="s">
         <v>172</v>
       </c>
       <c r="E137" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="F137" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="G137" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="H137">
         <v>40</v>
@@ -5132,22 +5177,22 @@
         <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D138" t="s">
         <v>173</v>
       </c>
       <c r="E138" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="F138" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="G138" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="H138">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5158,22 +5203,22 @@
         <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D139" t="s">
         <v>174</v>
       </c>
       <c r="E139" t="s">
-        <v>454</v>
+        <v>410</v>
       </c>
       <c r="F139" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="G139" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="H139">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5184,22 +5229,22 @@
         <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D140" t="s">
         <v>175</v>
       </c>
       <c r="E140" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="F140" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="G140" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="H140">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5216,16 +5261,16 @@
         <v>176</v>
       </c>
       <c r="E141" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="F141" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="G141" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="H141">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5242,16 +5287,16 @@
         <v>177</v>
       </c>
       <c r="E142" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="F142" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="G142" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="H142">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5268,16 +5313,16 @@
         <v>178</v>
       </c>
       <c r="E143" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="F143" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="G143" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="H143">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5288,13 +5333,22 @@
         <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D144" t="s">
         <v>179</v>
       </c>
       <c r="E144" t="s">
-        <v>457</v>
+        <v>399</v>
+      </c>
+      <c r="F144" t="s">
+        <v>574</v>
+      </c>
+      <c r="G144" t="s">
+        <v>660</v>
+      </c>
+      <c r="H144">
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5305,22 +5359,22 @@
         <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D145" t="s">
         <v>180</v>
       </c>
       <c r="E145" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F145" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="G145" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="H145">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5331,19 +5385,19 @@
         <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D146" t="s">
         <v>181</v>
       </c>
       <c r="E146" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="F146" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="G146" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="H146">
         <v>10</v>
@@ -5357,22 +5411,22 @@
         <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D147" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E147" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="F147" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="G147" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="H147">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5383,22 +5437,22 @@
         <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D148" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E148" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="F148" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="G148" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="H148">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5412,19 +5466,10 @@
         <v>23</v>
       </c>
       <c r="D149" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E149" t="s">
-        <v>461</v>
-      </c>
-      <c r="F149" t="s">
-        <v>604</v>
-      </c>
-      <c r="G149" t="s">
-        <v>649</v>
-      </c>
-      <c r="H149">
-        <v>50</v>
+        <v>468</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5438,19 +5483,19 @@
         <v>23</v>
       </c>
       <c r="D150" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E150" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="F150" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="G150" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="H150">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5464,16 +5509,16 @@
         <v>23</v>
       </c>
       <c r="D151" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E151" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="F151" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="G151" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="H151">
         <v>10</v>
@@ -5490,19 +5535,19 @@
         <v>23</v>
       </c>
       <c r="D152" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E152" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="F152" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="G152" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="H152">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5516,19 +5561,19 @@
         <v>23</v>
       </c>
       <c r="D153" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E153" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="F153" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="G153" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="H153">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5539,22 +5584,22 @@
         <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D154" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E154" t="s">
-        <v>400</v>
+        <v>472</v>
       </c>
       <c r="F154" t="s">
-        <v>568</v>
+        <v>618</v>
       </c>
       <c r="G154" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="H154">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5565,22 +5610,22 @@
         <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D155" t="s">
         <v>188</v>
       </c>
       <c r="E155" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="F155" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="G155" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="H155">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5591,13 +5636,22 @@
         <v>11</v>
       </c>
       <c r="C156" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D156" t="s">
         <v>189</v>
       </c>
       <c r="E156" t="s">
-        <v>464</v>
+        <v>473</v>
+      </c>
+      <c r="F156" t="s">
+        <v>620</v>
+      </c>
+      <c r="G156" t="s">
+        <v>661</v>
+      </c>
+      <c r="H156">
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5608,22 +5662,22 @@
         <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D157" t="s">
         <v>190</v>
       </c>
       <c r="E157" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F157" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="G157" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="H157">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5634,22 +5688,22 @@
         <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D158" t="s">
         <v>191</v>
       </c>
       <c r="E158" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="F158" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="G158" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="H158">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5660,22 +5714,22 @@
         <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D159" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E159" t="s">
-        <v>461</v>
+        <v>410</v>
       </c>
       <c r="F159" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="G159" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="H159">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5686,22 +5740,22 @@
         <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D160" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E160" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="F160" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="G160" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="H160">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5712,13 +5766,13 @@
         <v>11</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D161" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E161" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5729,13 +5783,22 @@
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D162" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E162" t="s">
-        <v>465</v>
+        <v>461</v>
+      </c>
+      <c r="F162" t="s">
+        <v>607</v>
+      </c>
+      <c r="G162" t="s">
+        <v>661</v>
+      </c>
+      <c r="H162">
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5746,19 +5809,19 @@
         <v>11</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D163" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E163" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="F163" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="G163" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="H163">
         <v>50</v>
@@ -5772,19 +5835,19 @@
         <v>11</v>
       </c>
       <c r="C164" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D164" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E164" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="F164" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="G164" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="H164">
         <v>50</v>
@@ -5798,13 +5861,22 @@
         <v>11</v>
       </c>
       <c r="C165" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D165" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E165" t="s">
-        <v>465</v>
+        <v>462</v>
+      </c>
+      <c r="F165" t="s">
+        <v>608</v>
+      </c>
+      <c r="G165" t="s">
+        <v>657</v>
+      </c>
+      <c r="H165">
+        <v>40</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5812,25 +5884,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D166" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E166" t="s">
-        <v>466</v>
-      </c>
-      <c r="F166" t="s">
-        <v>608</v>
-      </c>
-      <c r="G166" t="s">
-        <v>648</v>
-      </c>
-      <c r="H166">
-        <v>10</v>
+        <v>476</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5838,25 +5901,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D167" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E167" t="s">
-        <v>466</v>
-      </c>
-      <c r="F167" t="s">
-        <v>608</v>
-      </c>
-      <c r="G167" t="s">
-        <v>648</v>
-      </c>
-      <c r="H167">
-        <v>10</v>
+        <v>476</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5864,25 +5918,25 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D168" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E168" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="F168" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="G168" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="H168">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5890,16 +5944,25 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D169" t="s">
         <v>200</v>
       </c>
       <c r="E169" t="s">
-        <v>467</v>
+        <v>472</v>
+      </c>
+      <c r="F169" t="s">
+        <v>619</v>
+      </c>
+      <c r="G169" t="s">
+        <v>662</v>
+      </c>
+      <c r="H169">
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5907,16 +5970,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D170" t="s">
         <v>201</v>
       </c>
       <c r="E170" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5927,10 +5990,22 @@
         <v>12</v>
       </c>
       <c r="C171" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D171" t="s">
         <v>202</v>
+      </c>
+      <c r="E171" t="s">
+        <v>477</v>
+      </c>
+      <c r="F171" t="s">
+        <v>622</v>
+      </c>
+      <c r="G171" t="s">
+        <v>661</v>
+      </c>
+      <c r="H171">
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5941,22 +6016,13 @@
         <v>12</v>
       </c>
       <c r="C172" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D172" t="s">
         <v>203</v>
       </c>
       <c r="E172" t="s">
-        <v>466</v>
-      </c>
-      <c r="F172" t="s">
-        <v>608</v>
-      </c>
-      <c r="G172" t="s">
-        <v>648</v>
-      </c>
-      <c r="H172">
-        <v>10</v>
+        <v>478</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5967,19 +6033,19 @@
         <v>12</v>
       </c>
       <c r="C173" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D173" t="s">
         <v>204</v>
       </c>
       <c r="E173" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="F173" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="G173" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="H173">
         <v>10</v>
@@ -5993,19 +6059,19 @@
         <v>12</v>
       </c>
       <c r="C174" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D174" t="s">
         <v>205</v>
       </c>
       <c r="E174" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="F174" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="G174" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="H174">
         <v>10</v>
@@ -6019,22 +6085,13 @@
         <v>12</v>
       </c>
       <c r="C175" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D175" t="s">
         <v>206</v>
       </c>
       <c r="E175" t="s">
-        <v>468</v>
-      </c>
-      <c r="F175" t="s">
-        <v>609</v>
-      </c>
-      <c r="G175" t="s">
-        <v>648</v>
-      </c>
-      <c r="H175">
-        <v>10</v>
+        <v>479</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6045,13 +6102,13 @@
         <v>12</v>
       </c>
       <c r="C176" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D176" t="s">
         <v>207</v>
       </c>
       <c r="E176" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6067,9 +6124,6 @@
       <c r="D177" t="s">
         <v>208</v>
       </c>
-      <c r="E177" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="1">
@@ -6079,19 +6133,19 @@
         <v>12</v>
       </c>
       <c r="C178" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D178" t="s">
         <v>209</v>
       </c>
       <c r="E178" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="F178" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="G178" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="H178">
         <v>10</v>
@@ -6105,19 +6159,19 @@
         <v>12</v>
       </c>
       <c r="C179" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D179" t="s">
         <v>210</v>
       </c>
       <c r="E179" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="F179" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="G179" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="H179">
         <v>10</v>
@@ -6131,13 +6185,22 @@
         <v>12</v>
       </c>
       <c r="C180" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D180" t="s">
         <v>211</v>
       </c>
       <c r="E180" t="s">
-        <v>469</v>
+        <v>477</v>
+      </c>
+      <c r="F180" t="s">
+        <v>622</v>
+      </c>
+      <c r="G180" t="s">
+        <v>661</v>
+      </c>
+      <c r="H180">
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6148,13 +6211,22 @@
         <v>12</v>
       </c>
       <c r="C181" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D181" t="s">
         <v>212</v>
       </c>
       <c r="E181" t="s">
-        <v>471</v>
+        <v>480</v>
+      </c>
+      <c r="F181" t="s">
+        <v>623</v>
+      </c>
+      <c r="G181" t="s">
+        <v>661</v>
+      </c>
+      <c r="H181">
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6165,13 +6237,13 @@
         <v>12</v>
       </c>
       <c r="C182" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D182" t="s">
         <v>213</v>
       </c>
       <c r="E182" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6182,13 +6254,13 @@
         <v>12</v>
       </c>
       <c r="C183" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D183" t="s">
         <v>214</v>
       </c>
       <c r="E183" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6205,7 +6277,16 @@
         <v>215</v>
       </c>
       <c r="E184" t="s">
-        <v>473</v>
+        <v>477</v>
+      </c>
+      <c r="F184" t="s">
+        <v>622</v>
+      </c>
+      <c r="G184" t="s">
+        <v>661</v>
+      </c>
+      <c r="H184">
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6216,19 +6297,19 @@
         <v>12</v>
       </c>
       <c r="C185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D185" t="s">
         <v>216</v>
       </c>
       <c r="E185" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="F185" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="G185" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="H185">
         <v>10</v>
@@ -6242,22 +6323,13 @@
         <v>12</v>
       </c>
       <c r="C186" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D186" t="s">
         <v>217</v>
       </c>
       <c r="E186" t="s">
-        <v>466</v>
-      </c>
-      <c r="F186" t="s">
-        <v>608</v>
-      </c>
-      <c r="G186" t="s">
-        <v>648</v>
-      </c>
-      <c r="H186">
-        <v>10</v>
+        <v>483</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6268,13 +6340,13 @@
         <v>12</v>
       </c>
       <c r="C187" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D187" t="s">
         <v>218</v>
       </c>
       <c r="E187" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6285,22 +6357,13 @@
         <v>12</v>
       </c>
       <c r="C188" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D188" t="s">
         <v>219</v>
       </c>
       <c r="E188" t="s">
-        <v>466</v>
-      </c>
-      <c r="F188" t="s">
-        <v>608</v>
-      </c>
-      <c r="G188" t="s">
-        <v>648</v>
-      </c>
-      <c r="H188">
-        <v>10</v>
+        <v>484</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6311,22 +6374,13 @@
         <v>12</v>
       </c>
       <c r="C189" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D189" t="s">
         <v>220</v>
       </c>
       <c r="E189" t="s">
-        <v>468</v>
-      </c>
-      <c r="F189" t="s">
-        <v>609</v>
-      </c>
-      <c r="G189" t="s">
-        <v>648</v>
-      </c>
-      <c r="H189">
-        <v>10</v>
+        <v>485</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6337,13 +6391,13 @@
         <v>12</v>
       </c>
       <c r="C190" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D190" t="s">
         <v>221</v>
       </c>
       <c r="E190" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6354,13 +6408,22 @@
         <v>12</v>
       </c>
       <c r="C191" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D191" t="s">
         <v>222</v>
       </c>
       <c r="E191" t="s">
-        <v>476</v>
+        <v>477</v>
+      </c>
+      <c r="F191" t="s">
+        <v>622</v>
+      </c>
+      <c r="G191" t="s">
+        <v>661</v>
+      </c>
+      <c r="H191">
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6371,13 +6434,22 @@
         <v>12</v>
       </c>
       <c r="C192" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D192" t="s">
         <v>223</v>
       </c>
       <c r="E192" t="s">
-        <v>475</v>
+        <v>477</v>
+      </c>
+      <c r="F192" t="s">
+        <v>622</v>
+      </c>
+      <c r="G192" t="s">
+        <v>661</v>
+      </c>
+      <c r="H192">
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6388,13 +6460,13 @@
         <v>12</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D193" t="s">
         <v>224</v>
       </c>
       <c r="E193" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6405,13 +6477,22 @@
         <v>12</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D194" t="s">
         <v>225</v>
       </c>
       <c r="E194" t="s">
         <v>477</v>
+      </c>
+      <c r="F194" t="s">
+        <v>622</v>
+      </c>
+      <c r="G194" t="s">
+        <v>661</v>
+      </c>
+      <c r="H194">
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6422,19 +6503,19 @@
         <v>12</v>
       </c>
       <c r="C195" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D195" t="s">
         <v>226</v>
       </c>
       <c r="E195" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="F195" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="G195" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="H195">
         <v>10</v>
@@ -6448,13 +6529,13 @@
         <v>12</v>
       </c>
       <c r="C196" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D196" t="s">
         <v>227</v>
       </c>
       <c r="E196" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6465,22 +6546,13 @@
         <v>12</v>
       </c>
       <c r="C197" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D197" t="s">
         <v>228</v>
       </c>
       <c r="E197" t="s">
-        <v>466</v>
-      </c>
-      <c r="F197" t="s">
-        <v>608</v>
-      </c>
-      <c r="G197" t="s">
-        <v>648</v>
-      </c>
-      <c r="H197">
-        <v>10</v>
+        <v>488</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6491,22 +6563,13 @@
         <v>12</v>
       </c>
       <c r="C198" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D198" t="s">
         <v>229</v>
       </c>
       <c r="E198" t="s">
-        <v>466</v>
-      </c>
-      <c r="F198" t="s">
-        <v>608</v>
-      </c>
-      <c r="G198" t="s">
-        <v>648</v>
-      </c>
-      <c r="H198">
-        <v>10</v>
+        <v>487</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6517,13 +6580,13 @@
         <v>12</v>
       </c>
       <c r="C199" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D199" t="s">
         <v>230</v>
       </c>
       <c r="E199" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6534,13 +6597,13 @@
         <v>12</v>
       </c>
       <c r="C200" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D200" t="s">
         <v>231</v>
       </c>
       <c r="E200" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6551,13 +6614,22 @@
         <v>12</v>
       </c>
       <c r="C201" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D201" t="s">
         <v>232</v>
       </c>
       <c r="E201" t="s">
         <v>477</v>
+      </c>
+      <c r="F201" t="s">
+        <v>622</v>
+      </c>
+      <c r="G201" t="s">
+        <v>661</v>
+      </c>
+      <c r="H201">
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6568,22 +6640,13 @@
         <v>12</v>
       </c>
       <c r="C202" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D202" t="s">
         <v>233</v>
       </c>
       <c r="E202" t="s">
-        <v>466</v>
-      </c>
-      <c r="F202" t="s">
-        <v>608</v>
-      </c>
-      <c r="G202" t="s">
-        <v>648</v>
-      </c>
-      <c r="H202">
-        <v>10</v>
+        <v>487</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6594,13 +6657,22 @@
         <v>12</v>
       </c>
       <c r="C203" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D203" t="s">
         <v>234</v>
       </c>
       <c r="E203" t="s">
-        <v>478</v>
+        <v>477</v>
+      </c>
+      <c r="F203" t="s">
+        <v>622</v>
+      </c>
+      <c r="G203" t="s">
+        <v>661</v>
+      </c>
+      <c r="H203">
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6611,13 +6683,22 @@
         <v>12</v>
       </c>
       <c r="C204" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D204" t="s">
         <v>235</v>
       </c>
       <c r="E204" t="s">
-        <v>479</v>
+        <v>477</v>
+      </c>
+      <c r="F204" t="s">
+        <v>622</v>
+      </c>
+      <c r="G204" t="s">
+        <v>661</v>
+      </c>
+      <c r="H204">
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6628,13 +6709,13 @@
         <v>12</v>
       </c>
       <c r="C205" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D205" t="s">
         <v>236</v>
       </c>
       <c r="E205" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6645,13 +6726,13 @@
         <v>12</v>
       </c>
       <c r="C206" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D206" t="s">
         <v>237</v>
       </c>
       <c r="E206" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6662,13 +6743,13 @@
         <v>12</v>
       </c>
       <c r="C207" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D207" t="s">
         <v>238</v>
       </c>
       <c r="E207" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6679,10 +6760,22 @@
         <v>12</v>
       </c>
       <c r="C208" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D208" t="s">
         <v>239</v>
+      </c>
+      <c r="E208" t="s">
+        <v>477</v>
+      </c>
+      <c r="F208" t="s">
+        <v>622</v>
+      </c>
+      <c r="G208" t="s">
+        <v>661</v>
+      </c>
+      <c r="H208">
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6693,13 +6786,13 @@
         <v>12</v>
       </c>
       <c r="C209" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D209" t="s">
         <v>240</v>
       </c>
       <c r="E209" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6710,13 +6803,13 @@
         <v>12</v>
       </c>
       <c r="C210" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D210" t="s">
         <v>241</v>
       </c>
       <c r="E210" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6727,13 +6820,13 @@
         <v>12</v>
       </c>
       <c r="C211" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D211" t="s">
         <v>242</v>
       </c>
       <c r="E211" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6744,13 +6837,13 @@
         <v>12</v>
       </c>
       <c r="C212" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D212" t="s">
         <v>243</v>
       </c>
       <c r="E212" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6761,13 +6854,13 @@
         <v>12</v>
       </c>
       <c r="C213" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D213" t="s">
         <v>244</v>
       </c>
       <c r="E213" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6778,7 +6871,7 @@
         <v>12</v>
       </c>
       <c r="C214" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D214" t="s">
         <v>245</v>
@@ -6792,10 +6885,13 @@
         <v>12</v>
       </c>
       <c r="C215" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D215" t="s">
         <v>246</v>
+      </c>
+      <c r="E215" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6806,13 +6902,13 @@
         <v>12</v>
       </c>
       <c r="C216" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D216" t="s">
         <v>247</v>
       </c>
       <c r="E216" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6820,25 +6916,16 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C217" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D217" t="s">
         <v>248</v>
       </c>
       <c r="E217" t="s">
-        <v>484</v>
-      </c>
-      <c r="F217" t="s">
-        <v>610</v>
-      </c>
-      <c r="G217" t="s">
-        <v>645</v>
-      </c>
-      <c r="H217">
-        <v>70</v>
+        <v>493</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6846,25 +6933,16 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C218" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D218" t="s">
         <v>249</v>
       </c>
       <c r="E218" t="s">
-        <v>433</v>
-      </c>
-      <c r="F218" t="s">
-        <v>579</v>
-      </c>
-      <c r="G218" t="s">
-        <v>645</v>
-      </c>
-      <c r="H218">
-        <v>70</v>
+        <v>493</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6872,13 +6950,16 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C219" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D219" t="s">
         <v>250</v>
+      </c>
+      <c r="E219" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6886,25 +6967,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C220" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D220" t="s">
         <v>251</v>
-      </c>
-      <c r="E220" t="s">
-        <v>444</v>
-      </c>
-      <c r="F220" t="s">
-        <v>586</v>
-      </c>
-      <c r="G220" t="s">
-        <v>644</v>
-      </c>
-      <c r="H220">
-        <v>100</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6912,25 +6981,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C221" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D221" t="s">
         <v>252</v>
-      </c>
-      <c r="E221" t="s">
-        <v>485</v>
-      </c>
-      <c r="F221" t="s">
-        <v>611</v>
-      </c>
-      <c r="G221" t="s">
-        <v>645</v>
-      </c>
-      <c r="H221">
-        <v>70</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6938,25 +6995,16 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C222" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D222" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E222" t="s">
-        <v>485</v>
-      </c>
-      <c r="F222" t="s">
-        <v>612</v>
-      </c>
-      <c r="G222" t="s">
-        <v>645</v>
-      </c>
-      <c r="H222">
-        <v>70</v>
+        <v>495</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6967,22 +7015,22 @@
         <v>13</v>
       </c>
       <c r="C223" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D223" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E223" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="F223" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="G223" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="H223">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6993,19 +7041,19 @@
         <v>13</v>
       </c>
       <c r="C224" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D224" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E224" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="F224" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="G224" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="H224">
         <v>70</v>
@@ -7019,22 +7067,10 @@
         <v>13</v>
       </c>
       <c r="C225" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D225" t="s">
-        <v>255</v>
-      </c>
-      <c r="E225" t="s">
-        <v>487</v>
-      </c>
-      <c r="F225" t="s">
-        <v>614</v>
-      </c>
-      <c r="G225" t="s">
-        <v>643</v>
-      </c>
-      <c r="H225">
-        <v>85</v>
+        <v>256</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7045,13 +7081,22 @@
         <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D226" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E226" t="s">
-        <v>488</v>
+        <v>455</v>
+      </c>
+      <c r="F226" t="s">
+        <v>600</v>
+      </c>
+      <c r="G226" t="s">
+        <v>658</v>
+      </c>
+      <c r="H226">
+        <v>100</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7062,22 +7107,22 @@
         <v>13</v>
       </c>
       <c r="C227" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D227" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E227" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="F227" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="G227" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="H227">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7088,22 +7133,22 @@
         <v>13</v>
       </c>
       <c r="C228" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D228" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E228" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="F228" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="G228" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="H228">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7114,19 +7159,19 @@
         <v>13</v>
       </c>
       <c r="C229" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D229" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="F229" t="s">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="G229" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="H229">
         <v>40</v>
@@ -7140,13 +7185,22 @@
         <v>13</v>
       </c>
       <c r="C230" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D230" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E230" t="s">
-        <v>488</v>
+        <v>442</v>
+      </c>
+      <c r="F230" t="s">
+        <v>591</v>
+      </c>
+      <c r="G230" t="s">
+        <v>659</v>
+      </c>
+      <c r="H230">
+        <v>70</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7160,19 +7214,19 @@
         <v>22</v>
       </c>
       <c r="D231" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E231" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="F231" t="s">
-        <v>593</v>
+        <v>628</v>
       </c>
       <c r="G231" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="H231">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7183,22 +7237,13 @@
         <v>13</v>
       </c>
       <c r="C232" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D232" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E232" t="s">
-        <v>490</v>
-      </c>
-      <c r="F232" t="s">
-        <v>615</v>
-      </c>
-      <c r="G232" t="s">
-        <v>649</v>
-      </c>
-      <c r="H232">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7209,22 +7254,22 @@
         <v>13</v>
       </c>
       <c r="C233" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D233" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E233" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="F233" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="G233" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="H233">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7235,22 +7280,22 @@
         <v>13</v>
       </c>
       <c r="C234" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D234" t="s">
         <v>263</v>
       </c>
       <c r="E234" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="F234" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
       <c r="G234" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="H234">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7261,19 +7306,19 @@
         <v>13</v>
       </c>
       <c r="C235" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D235" t="s">
         <v>264</v>
       </c>
       <c r="E235" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="F235" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="G235" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="H235">
         <v>40</v>
@@ -7287,22 +7332,13 @@
         <v>13</v>
       </c>
       <c r="C236" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D236" t="s">
         <v>265</v>
       </c>
       <c r="E236" t="s">
-        <v>492</v>
-      </c>
-      <c r="F236" t="s">
-        <v>618</v>
-      </c>
-      <c r="G236" t="s">
-        <v>647</v>
-      </c>
-      <c r="H236">
-        <v>40</v>
+        <v>500</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7313,22 +7349,22 @@
         <v>13</v>
       </c>
       <c r="C237" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D237" t="s">
         <v>266</v>
       </c>
       <c r="E237" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="F237" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="G237" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="H237">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7339,22 +7375,22 @@
         <v>13</v>
       </c>
       <c r="C238" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D238" t="s">
         <v>267</v>
       </c>
       <c r="E238" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="F238" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="G238" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="H238">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7365,22 +7401,22 @@
         <v>13</v>
       </c>
       <c r="C239" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D239" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E239" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="F239" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="G239" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="H239">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7391,22 +7427,22 @@
         <v>13</v>
       </c>
       <c r="C240" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D240" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E240" t="s">
-        <v>400</v>
+        <v>461</v>
       </c>
       <c r="F240" t="s">
-        <v>568</v>
+        <v>607</v>
       </c>
       <c r="G240" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="H240">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7417,13 +7453,22 @@
         <v>13</v>
       </c>
       <c r="C241" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D241" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E241" t="s">
-        <v>495</v>
+        <v>504</v>
+      </c>
+      <c r="F241" t="s">
+        <v>632</v>
+      </c>
+      <c r="G241" t="s">
+        <v>657</v>
+      </c>
+      <c r="H241">
+        <v>40</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7434,19 +7479,19 @@
         <v>13</v>
       </c>
       <c r="C242" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E242" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="F242" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="G242" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="H242">
         <v>40</v>
@@ -7460,22 +7505,22 @@
         <v>13</v>
       </c>
       <c r="C243" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D243" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E243" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="F243" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="G243" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="H243">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7486,22 +7531,22 @@
         <v>13</v>
       </c>
       <c r="C244" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D244" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E244" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="F244" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="G244" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="H244">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7512,22 +7557,22 @@
         <v>13</v>
       </c>
       <c r="C245" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D245" t="s">
         <v>273</v>
       </c>
       <c r="E245" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
       <c r="F245" t="s">
-        <v>589</v>
+        <v>634</v>
       </c>
       <c r="G245" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="H245">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7538,22 +7583,22 @@
         <v>13</v>
       </c>
       <c r="C246" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D246" t="s">
         <v>274</v>
       </c>
       <c r="E246" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="F246" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="G246" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="H246">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7564,13 +7609,13 @@
         <v>13</v>
       </c>
       <c r="C247" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D247" t="s">
         <v>275</v>
       </c>
       <c r="E247" t="s">
-        <v>398</v>
+        <v>507</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7581,22 +7626,22 @@
         <v>13</v>
       </c>
       <c r="C248" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D248" t="s">
         <v>276</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="F248" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="G248" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="H248">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7607,22 +7652,22 @@
         <v>13</v>
       </c>
       <c r="C249" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D249" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="F249" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="G249" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="H249">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7633,13 +7678,22 @@
         <v>13</v>
       </c>
       <c r="C250" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D250" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E250" t="s">
-        <v>497</v>
+        <v>499</v>
+      </c>
+      <c r="F250" t="s">
+        <v>628</v>
+      </c>
+      <c r="G250" t="s">
+        <v>656</v>
+      </c>
+      <c r="H250">
+        <v>85</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7650,13 +7704,22 @@
         <v>13</v>
       </c>
       <c r="C251" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D251" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E251" t="s">
-        <v>498</v>
+        <v>458</v>
+      </c>
+      <c r="F251" t="s">
+        <v>603</v>
+      </c>
+      <c r="G251" t="s">
+        <v>657</v>
+      </c>
+      <c r="H251">
+        <v>40</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7667,13 +7730,22 @@
         <v>13</v>
       </c>
       <c r="C252" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D252" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E252" t="s">
-        <v>498</v>
+        <v>442</v>
+      </c>
+      <c r="F252" t="s">
+        <v>591</v>
+      </c>
+      <c r="G252" t="s">
+        <v>659</v>
+      </c>
+      <c r="H252">
+        <v>70</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7684,13 +7756,13 @@
         <v>13</v>
       </c>
       <c r="C253" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D253" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E253" t="s">
-        <v>498</v>
+        <v>408</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7701,13 +7773,22 @@
         <v>13</v>
       </c>
       <c r="C254" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D254" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E254" t="s">
-        <v>498</v>
+        <v>497</v>
+      </c>
+      <c r="F254" t="s">
+        <v>625</v>
+      </c>
+      <c r="G254" t="s">
+        <v>659</v>
+      </c>
+      <c r="H254">
+        <v>70</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7715,25 +7796,25 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C255" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D255" t="s">
         <v>282</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F255" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="G255" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="H255">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7741,16 +7822,16 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C256" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D256" t="s">
         <v>283</v>
       </c>
       <c r="E256" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7758,25 +7839,16 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C257" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D257" t="s">
         <v>284</v>
       </c>
       <c r="E257" t="s">
-        <v>461</v>
-      </c>
-      <c r="F257" t="s">
-        <v>604</v>
-      </c>
-      <c r="G257" t="s">
-        <v>649</v>
-      </c>
-      <c r="H257">
-        <v>50</v>
+        <v>510</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7784,25 +7856,16 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C258" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D258" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E258" t="s">
-        <v>461</v>
-      </c>
-      <c r="F258" t="s">
-        <v>605</v>
-      </c>
-      <c r="G258" t="s">
-        <v>649</v>
-      </c>
-      <c r="H258">
-        <v>50</v>
+        <v>510</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7810,16 +7873,16 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C259" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D259" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7827,25 +7890,16 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C260" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D260" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E260" t="s">
-        <v>502</v>
-      </c>
-      <c r="F260" t="s">
-        <v>623</v>
-      </c>
-      <c r="G260" t="s">
-        <v>649</v>
-      </c>
-      <c r="H260">
-        <v>50</v>
+        <v>510</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7856,22 +7910,22 @@
         <v>14</v>
       </c>
       <c r="C261" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D261" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E261" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="F261" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="G261" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="H261">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7882,22 +7936,13 @@
         <v>14</v>
       </c>
       <c r="C262" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D262" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E262" t="s">
-        <v>462</v>
-      </c>
-      <c r="F262" t="s">
-        <v>606</v>
-      </c>
-      <c r="G262" t="s">
-        <v>648</v>
-      </c>
-      <c r="H262">
-        <v>10</v>
+        <v>512</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7908,22 +7953,22 @@
         <v>14</v>
       </c>
       <c r="C263" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D263" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E263" t="s">
-        <v>394</v>
+        <v>472</v>
       </c>
       <c r="F263" t="s">
-        <v>566</v>
+        <v>618</v>
       </c>
       <c r="G263" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="H263">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7934,10 +7979,22 @@
         <v>14</v>
       </c>
       <c r="C264" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D264" t="s">
-        <v>289</v>
+        <v>290</v>
+      </c>
+      <c r="E264" t="s">
+        <v>472</v>
+      </c>
+      <c r="F264" t="s">
+        <v>619</v>
+      </c>
+      <c r="G264" t="s">
+        <v>662</v>
+      </c>
+      <c r="H264">
+        <v>50</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7948,13 +8005,22 @@
         <v>14</v>
       </c>
       <c r="C265" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D265" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E265" t="s">
-        <v>503</v>
+        <v>462</v>
+      </c>
+      <c r="F265" t="s">
+        <v>608</v>
+      </c>
+      <c r="G265" t="s">
+        <v>657</v>
+      </c>
+      <c r="H265">
+        <v>40</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7965,10 +8031,22 @@
         <v>14</v>
       </c>
       <c r="C266" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D266" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="E266" t="s">
+        <v>460</v>
+      </c>
+      <c r="F266" t="s">
+        <v>605</v>
+      </c>
+      <c r="G266" t="s">
+        <v>657</v>
+      </c>
+      <c r="H266">
+        <v>40</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7979,10 +8057,22 @@
         <v>14</v>
       </c>
       <c r="C267" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D267" t="s">
         <v>292</v>
+      </c>
+      <c r="E267" t="s">
+        <v>460</v>
+      </c>
+      <c r="F267" t="s">
+        <v>606</v>
+      </c>
+      <c r="G267" t="s">
+        <v>657</v>
+      </c>
+      <c r="H267">
+        <v>40</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7993,22 +8083,13 @@
         <v>14</v>
       </c>
       <c r="C268" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D268" t="s">
         <v>293</v>
       </c>
       <c r="E268" t="s">
-        <v>449</v>
-      </c>
-      <c r="F268" t="s">
-        <v>591</v>
-      </c>
-      <c r="G268" t="s">
-        <v>647</v>
-      </c>
-      <c r="H268">
-        <v>40</v>
+        <v>513</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8019,22 +8100,22 @@
         <v>14</v>
       </c>
       <c r="C269" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D269" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E269" t="s">
-        <v>449</v>
+        <v>514</v>
       </c>
       <c r="F269" t="s">
-        <v>592</v>
+        <v>637</v>
       </c>
       <c r="G269" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="H269">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8045,19 +8126,19 @@
         <v>14</v>
       </c>
       <c r="C270" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D270" t="s">
         <v>294</v>
       </c>
       <c r="E270" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="F270" t="s">
-        <v>604</v>
+        <v>638</v>
       </c>
       <c r="G270" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="H270">
         <v>50</v>
@@ -8071,22 +8152,22 @@
         <v>14</v>
       </c>
       <c r="C271" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D271" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E271" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="F271" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="G271" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="H271">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8097,22 +8178,13 @@
         <v>14</v>
       </c>
       <c r="C272" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D272" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E272" t="s">
-        <v>502</v>
-      </c>
-      <c r="F272" t="s">
-        <v>623</v>
-      </c>
-      <c r="G272" t="s">
-        <v>649</v>
-      </c>
-      <c r="H272">
-        <v>50</v>
+        <v>515</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8123,22 +8195,22 @@
         <v>14</v>
       </c>
       <c r="C273" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D273" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E273" t="s">
-        <v>502</v>
+        <v>404</v>
       </c>
       <c r="F273" t="s">
-        <v>624</v>
+        <v>579</v>
       </c>
       <c r="G273" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="H273">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8149,22 +8221,10 @@
         <v>14</v>
       </c>
       <c r="C274" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D274" t="s">
-        <v>296</v>
-      </c>
-      <c r="E274" t="s">
-        <v>504</v>
-      </c>
-      <c r="F274" t="s">
-        <v>625</v>
-      </c>
-      <c r="G274" t="s">
-        <v>647</v>
-      </c>
-      <c r="H274">
-        <v>40</v>
+        <v>298</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8175,22 +8235,10 @@
         <v>14</v>
       </c>
       <c r="C275" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D275" t="s">
-        <v>296</v>
-      </c>
-      <c r="E275" t="s">
-        <v>504</v>
-      </c>
-      <c r="F275" t="s">
-        <v>625</v>
-      </c>
-      <c r="G275" t="s">
-        <v>647</v>
-      </c>
-      <c r="H275">
-        <v>40</v>
+        <v>299</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8201,22 +8249,10 @@
         <v>14</v>
       </c>
       <c r="C276" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D276" t="s">
-        <v>297</v>
-      </c>
-      <c r="E276" t="s">
-        <v>502</v>
-      </c>
-      <c r="F276" t="s">
-        <v>623</v>
-      </c>
-      <c r="G276" t="s">
-        <v>649</v>
-      </c>
-      <c r="H276">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8227,22 +8263,22 @@
         <v>14</v>
       </c>
       <c r="C277" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D277" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E277" t="s">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="F277" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="G277" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="H277">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8253,22 +8289,22 @@
         <v>14</v>
       </c>
       <c r="C278" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D278" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E278" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="F278" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="G278" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="H278">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8276,16 +8312,25 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C279" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D279" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E279" t="s">
-        <v>506</v>
+        <v>472</v>
+      </c>
+      <c r="F279" t="s">
+        <v>618</v>
+      </c>
+      <c r="G279" t="s">
+        <v>662</v>
+      </c>
+      <c r="H279">
+        <v>50</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8293,16 +8338,25 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C280" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D280" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E280" t="s">
-        <v>507</v>
+        <v>472</v>
+      </c>
+      <c r="F280" t="s">
+        <v>619</v>
+      </c>
+      <c r="G280" t="s">
+        <v>662</v>
+      </c>
+      <c r="H280">
+        <v>50</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8310,16 +8364,25 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C281" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D281" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E281" t="s">
-        <v>508</v>
+        <v>514</v>
+      </c>
+      <c r="F281" t="s">
+        <v>637</v>
+      </c>
+      <c r="G281" t="s">
+        <v>662</v>
+      </c>
+      <c r="H281">
+        <v>50</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8327,25 +8390,25 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C282" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D282" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E282" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="F282" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="G282" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="H282">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8353,16 +8416,25 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C283" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D283" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E283" t="s">
-        <v>510</v>
+        <v>394</v>
+      </c>
+      <c r="F283" t="s">
+        <v>570</v>
+      </c>
+      <c r="G283" t="s">
+        <v>657</v>
+      </c>
+      <c r="H283">
+        <v>40</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8370,16 +8442,25 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C284" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D284" t="s">
         <v>304</v>
       </c>
       <c r="E284" t="s">
-        <v>511</v>
+        <v>394</v>
+      </c>
+      <c r="F284" t="s">
+        <v>570</v>
+      </c>
+      <c r="G284" t="s">
+        <v>657</v>
+      </c>
+      <c r="H284">
+        <v>40</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8387,16 +8468,25 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C285" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D285" t="s">
         <v>305</v>
       </c>
       <c r="E285" t="s">
-        <v>512</v>
+        <v>514</v>
+      </c>
+      <c r="F285" t="s">
+        <v>637</v>
+      </c>
+      <c r="G285" t="s">
+        <v>662</v>
+      </c>
+      <c r="H285">
+        <v>50</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8404,16 +8494,25 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C286" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D286" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E286" t="s">
-        <v>513</v>
+        <v>514</v>
+      </c>
+      <c r="F286" t="s">
+        <v>638</v>
+      </c>
+      <c r="G286" t="s">
+        <v>662</v>
+      </c>
+      <c r="H286">
+        <v>50</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8421,16 +8520,25 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C287" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D287" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E287" t="s">
-        <v>514</v>
+        <v>516</v>
+      </c>
+      <c r="F287" t="s">
+        <v>639</v>
+      </c>
+      <c r="G287" t="s">
+        <v>659</v>
+      </c>
+      <c r="H287">
+        <v>70</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8438,16 +8546,16 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C288" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D288" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E288" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8458,13 +8566,13 @@
         <v>16</v>
       </c>
       <c r="C289" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D289" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E289" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8475,22 +8583,13 @@
         <v>16</v>
       </c>
       <c r="C290" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D290" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E290" t="s">
-        <v>517</v>
-      </c>
-      <c r="F290" t="s">
-        <v>628</v>
-      </c>
-      <c r="G290" t="s">
-        <v>648</v>
-      </c>
-      <c r="H290">
-        <v>10</v>
+        <v>519</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8498,16 +8597,25 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C291" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D291" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E291" t="s">
-        <v>518</v>
+        <v>520</v>
+      </c>
+      <c r="F291" t="s">
+        <v>640</v>
+      </c>
+      <c r="G291" t="s">
+        <v>661</v>
+      </c>
+      <c r="H291">
+        <v>10</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8515,25 +8623,16 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C292" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D292" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E292" t="s">
-        <v>519</v>
-      </c>
-      <c r="F292" t="s">
-        <v>629</v>
-      </c>
-      <c r="G292" t="s">
-        <v>643</v>
-      </c>
-      <c r="H292">
-        <v>85</v>
+        <v>521</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8541,16 +8640,16 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C293" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D293" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E293" t="s">
-        <v>427</v>
+        <v>522</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8558,25 +8657,16 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C294" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D294" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E294" t="s">
-        <v>438</v>
-      </c>
-      <c r="F294" t="s">
-        <v>584</v>
-      </c>
-      <c r="G294" t="s">
-        <v>643</v>
-      </c>
-      <c r="H294">
-        <v>85</v>
+        <v>523</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8584,25 +8674,16 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C295" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D295" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E295" t="s">
-        <v>448</v>
-      </c>
-      <c r="F295" t="s">
-        <v>590</v>
-      </c>
-      <c r="G295" t="s">
-        <v>644</v>
-      </c>
-      <c r="H295">
-        <v>100</v>
+        <v>524</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8610,13 +8691,16 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C296" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D296" t="s">
-        <v>316</v>
+        <v>315</v>
+      </c>
+      <c r="E296" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8624,16 +8708,16 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C297" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D297" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E297" t="s">
-        <v>387</v>
+        <v>526</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8641,16 +8725,16 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C298" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D298" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E298" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8658,16 +8742,25 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C299" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D299" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E299" t="s">
-        <v>521</v>
+        <v>528</v>
+      </c>
+      <c r="F299" t="s">
+        <v>641</v>
+      </c>
+      <c r="G299" t="s">
+        <v>661</v>
+      </c>
+      <c r="H299">
+        <v>10</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8678,13 +8771,13 @@
         <v>17</v>
       </c>
       <c r="C300" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D300" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E300" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8695,22 +8788,22 @@
         <v>17</v>
       </c>
       <c r="C301" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D301" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E301" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="F301" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="G301" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="H301">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8721,22 +8814,13 @@
         <v>17</v>
       </c>
       <c r="C302" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D302" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E302" t="s">
-        <v>523</v>
-      </c>
-      <c r="F302" t="s">
-        <v>631</v>
-      </c>
-      <c r="G302" t="s">
-        <v>649</v>
-      </c>
-      <c r="H302">
-        <v>50</v>
+        <v>437</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8747,22 +8831,22 @@
         <v>17</v>
       </c>
       <c r="C303" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D303" t="s">
         <v>322</v>
       </c>
       <c r="E303" t="s">
-        <v>523</v>
+        <v>448</v>
       </c>
       <c r="F303" t="s">
-        <v>632</v>
+        <v>597</v>
       </c>
       <c r="G303" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="H303">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8773,10 +8857,22 @@
         <v>17</v>
       </c>
       <c r="C304" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D304" t="s">
         <v>323</v>
+      </c>
+      <c r="E304" t="s">
+        <v>459</v>
+      </c>
+      <c r="F304" t="s">
+        <v>604</v>
+      </c>
+      <c r="G304" t="s">
+        <v>658</v>
+      </c>
+      <c r="H304">
+        <v>100</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8787,22 +8883,10 @@
         <v>17</v>
       </c>
       <c r="C305" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D305" t="s">
         <v>324</v>
-      </c>
-      <c r="E305" t="s">
-        <v>432</v>
-      </c>
-      <c r="F305" t="s">
-        <v>578</v>
-      </c>
-      <c r="G305" t="s">
-        <v>645</v>
-      </c>
-      <c r="H305">
-        <v>70</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8813,22 +8897,13 @@
         <v>17</v>
       </c>
       <c r="C306" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D306" t="s">
         <v>325</v>
       </c>
       <c r="E306" t="s">
-        <v>524</v>
-      </c>
-      <c r="F306" t="s">
-        <v>633</v>
-      </c>
-      <c r="G306" t="s">
-        <v>645</v>
-      </c>
-      <c r="H306">
-        <v>70</v>
+        <v>397</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8839,22 +8914,13 @@
         <v>17</v>
       </c>
       <c r="C307" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D307" t="s">
         <v>326</v>
       </c>
       <c r="E307" t="s">
-        <v>433</v>
-      </c>
-      <c r="F307" t="s">
-        <v>579</v>
-      </c>
-      <c r="G307" t="s">
-        <v>645</v>
-      </c>
-      <c r="H307">
-        <v>70</v>
+        <v>531</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8865,22 +8931,13 @@
         <v>17</v>
       </c>
       <c r="C308" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D308" t="s">
         <v>327</v>
       </c>
       <c r="E308" t="s">
-        <v>432</v>
-      </c>
-      <c r="F308" t="s">
-        <v>578</v>
-      </c>
-      <c r="G308" t="s">
-        <v>645</v>
-      </c>
-      <c r="H308">
-        <v>70</v>
+        <v>532</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8891,22 +8948,13 @@
         <v>17</v>
       </c>
       <c r="C309" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D309" t="s">
         <v>328</v>
       </c>
       <c r="E309" t="s">
-        <v>525</v>
-      </c>
-      <c r="F309" t="s">
-        <v>634</v>
-      </c>
-      <c r="G309" t="s">
-        <v>643</v>
-      </c>
-      <c r="H309">
-        <v>85</v>
+        <v>531</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8917,13 +8965,22 @@
         <v>17</v>
       </c>
       <c r="C310" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D310" t="s">
         <v>329</v>
       </c>
       <c r="E310" t="s">
-        <v>526</v>
+        <v>533</v>
+      </c>
+      <c r="F310" t="s">
+        <v>643</v>
+      </c>
+      <c r="G310" t="s">
+        <v>659</v>
+      </c>
+      <c r="H310">
+        <v>70</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8934,22 +8991,22 @@
         <v>17</v>
       </c>
       <c r="C311" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D311" t="s">
         <v>330</v>
       </c>
       <c r="E311" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="F311" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="G311" t="s">
-        <v>643</v>
+        <v>662</v>
       </c>
       <c r="H311">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8960,22 +9017,22 @@
         <v>17</v>
       </c>
       <c r="C312" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D312" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E312" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="F312" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="G312" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="H312">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8986,22 +9043,10 @@
         <v>17</v>
       </c>
       <c r="C313" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D313" t="s">
-        <v>332</v>
-      </c>
-      <c r="E313" t="s">
-        <v>460</v>
-      </c>
-      <c r="F313" t="s">
-        <v>603</v>
-      </c>
-      <c r="G313" t="s">
-        <v>648</v>
-      </c>
-      <c r="H313">
-        <v>10</v>
+        <v>331</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9012,13 +9057,22 @@
         <v>17</v>
       </c>
       <c r="C314" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D314" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E314" t="s">
-        <v>528</v>
+        <v>442</v>
+      </c>
+      <c r="F314" t="s">
+        <v>591</v>
+      </c>
+      <c r="G314" t="s">
+        <v>659</v>
+      </c>
+      <c r="H314">
+        <v>70</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9029,10 +9083,22 @@
         <v>17</v>
       </c>
       <c r="C315" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D315" t="s">
-        <v>334</v>
+        <v>333</v>
+      </c>
+      <c r="E315" t="s">
+        <v>442</v>
+      </c>
+      <c r="F315" t="s">
+        <v>591</v>
+      </c>
+      <c r="G315" t="s">
+        <v>659</v>
+      </c>
+      <c r="H315">
+        <v>70</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9043,13 +9109,22 @@
         <v>17</v>
       </c>
       <c r="C316" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D316" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E316" t="s">
-        <v>498</v>
+        <v>535</v>
+      </c>
+      <c r="F316" t="s">
+        <v>646</v>
+      </c>
+      <c r="G316" t="s">
+        <v>659</v>
+      </c>
+      <c r="H316">
+        <v>70</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9060,13 +9135,22 @@
         <v>17</v>
       </c>
       <c r="C317" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D317" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E317" t="s">
-        <v>498</v>
+        <v>443</v>
+      </c>
+      <c r="F317" t="s">
+        <v>592</v>
+      </c>
+      <c r="G317" t="s">
+        <v>659</v>
+      </c>
+      <c r="H317">
+        <v>70</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9077,13 +9161,22 @@
         <v>17</v>
       </c>
       <c r="C318" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D318" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E318" t="s">
-        <v>529</v>
+        <v>536</v>
+      </c>
+      <c r="F318" t="s">
+        <v>647</v>
+      </c>
+      <c r="G318" t="s">
+        <v>656</v>
+      </c>
+      <c r="H318">
+        <v>85</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9094,13 +9187,13 @@
         <v>17</v>
       </c>
       <c r="C319" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D319" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E319" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9111,13 +9204,22 @@
         <v>17</v>
       </c>
       <c r="C320" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D320" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E320" t="s">
-        <v>526</v>
+        <v>536</v>
+      </c>
+      <c r="F320" t="s">
+        <v>647</v>
+      </c>
+      <c r="G320" t="s">
+        <v>656</v>
+      </c>
+      <c r="H320">
+        <v>85</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9128,10 +9230,22 @@
         <v>17</v>
       </c>
       <c r="C321" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D321" t="s">
-        <v>340</v>
+        <v>339</v>
+      </c>
+      <c r="E321" t="s">
+        <v>538</v>
+      </c>
+      <c r="F321" t="s">
+        <v>648</v>
+      </c>
+      <c r="G321" t="s">
+        <v>659</v>
+      </c>
+      <c r="H321">
+        <v>70</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9142,22 +9256,22 @@
         <v>17</v>
       </c>
       <c r="C322" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D322" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E322" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="F322" t="s">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="G322" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="H322">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9168,22 +9282,13 @@
         <v>17</v>
       </c>
       <c r="C323" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D323" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E323" t="s">
-        <v>447</v>
-      </c>
-      <c r="F323" t="s">
-        <v>589</v>
-      </c>
-      <c r="G323" t="s">
-        <v>647</v>
-      </c>
-      <c r="H323">
-        <v>40</v>
+        <v>539</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9194,13 +9299,10 @@
         <v>17</v>
       </c>
       <c r="C324" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D324" t="s">
-        <v>343</v>
-      </c>
-      <c r="E324" t="s">
-        <v>531</v>
+        <v>342</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9211,13 +9313,13 @@
         <v>17</v>
       </c>
       <c r="C325" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D325" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E325" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9228,10 +9330,13 @@
         <v>17</v>
       </c>
       <c r="C326" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D326" t="s">
-        <v>345</v>
+        <v>344</v>
+      </c>
+      <c r="E326" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9242,13 +9347,13 @@
         <v>17</v>
       </c>
       <c r="C327" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D327" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E327" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9259,13 +9364,13 @@
         <v>17</v>
       </c>
       <c r="C328" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D328" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E328" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9276,13 +9381,13 @@
         <v>17</v>
       </c>
       <c r="C329" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D329" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E329" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9296,7 +9401,7 @@
         <v>26</v>
       </c>
       <c r="D330" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9304,25 +9409,25 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C331" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D331" t="s">
         <v>349</v>
       </c>
       <c r="E331" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="F331" t="s">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="G331" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="H331">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9330,25 +9435,25 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C332" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D332" t="s">
         <v>350</v>
       </c>
       <c r="E332" t="s">
-        <v>536</v>
+        <v>458</v>
       </c>
       <c r="F332" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
       <c r="G332" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="H332">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9356,16 +9461,16 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C333" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D333" t="s">
         <v>351</v>
       </c>
       <c r="E333" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9373,25 +9478,16 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C334" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D334" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="E334" t="s">
-        <v>448</v>
-      </c>
-      <c r="F334" t="s">
-        <v>590</v>
-      </c>
-      <c r="G334" t="s">
-        <v>644</v>
-      </c>
-      <c r="H334">
-        <v>100</v>
+        <v>543</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9399,25 +9495,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C335" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D335" t="s">
-        <v>352</v>
-      </c>
-      <c r="E335" t="s">
-        <v>538</v>
-      </c>
-      <c r="F335" t="s">
-        <v>637</v>
-      </c>
-      <c r="G335" t="s">
-        <v>646</v>
-      </c>
-      <c r="H335">
-        <v>20</v>
+        <v>353</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9425,25 +9509,16 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C336" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D336" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E336" t="s">
-        <v>433</v>
-      </c>
-      <c r="F336" t="s">
-        <v>579</v>
-      </c>
-      <c r="G336" t="s">
-        <v>645</v>
-      </c>
-      <c r="H336">
-        <v>70</v>
+        <v>544</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9451,25 +9526,16 @@
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C337" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D337" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E337" t="s">
-        <v>432</v>
-      </c>
-      <c r="F337" t="s">
-        <v>578</v>
-      </c>
-      <c r="G337" t="s">
-        <v>645</v>
-      </c>
-      <c r="H337">
-        <v>70</v>
+        <v>545</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9477,25 +9543,16 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C338" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D338" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E338" t="s">
-        <v>449</v>
-      </c>
-      <c r="F338" t="s">
-        <v>591</v>
-      </c>
-      <c r="G338" t="s">
-        <v>647</v>
-      </c>
-      <c r="H338">
-        <v>40</v>
+        <v>546</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9503,25 +9560,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C339" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D339" t="s">
-        <v>355</v>
-      </c>
-      <c r="E339" t="s">
-        <v>449</v>
-      </c>
-      <c r="F339" t="s">
-        <v>592</v>
-      </c>
-      <c r="G339" t="s">
-        <v>647</v>
-      </c>
-      <c r="H339">
-        <v>40</v>
+        <v>348</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9532,22 +9577,22 @@
         <v>18</v>
       </c>
       <c r="C340" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D340" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E340" t="s">
-        <v>539</v>
+        <v>439</v>
       </c>
       <c r="F340" t="s">
-        <v>638</v>
+        <v>589</v>
       </c>
       <c r="G340" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="H340">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9558,22 +9603,22 @@
         <v>18</v>
       </c>
       <c r="C341" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D341" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E341" t="s">
-        <v>449</v>
+        <v>547</v>
       </c>
       <c r="F341" t="s">
-        <v>591</v>
+        <v>649</v>
       </c>
       <c r="G341" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="H341">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9584,22 +9629,13 @@
         <v>18</v>
       </c>
       <c r="C342" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D342" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E342" t="s">
-        <v>449</v>
-      </c>
-      <c r="F342" t="s">
-        <v>592</v>
-      </c>
-      <c r="G342" t="s">
-        <v>647</v>
-      </c>
-      <c r="H342">
-        <v>40</v>
+        <v>548</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9610,22 +9646,22 @@
         <v>18</v>
       </c>
       <c r="C343" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D343" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="E343" t="s">
-        <v>539</v>
+        <v>459</v>
       </c>
       <c r="F343" t="s">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="G343" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="H343">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9636,22 +9672,22 @@
         <v>18</v>
       </c>
       <c r="C344" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D344" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E344" t="s">
-        <v>433</v>
+        <v>549</v>
       </c>
       <c r="F344" t="s">
-        <v>579</v>
+        <v>650</v>
       </c>
       <c r="G344" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="H344">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9662,22 +9698,22 @@
         <v>18</v>
       </c>
       <c r="C345" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D345" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="E345" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F345" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G345" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="H345">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9688,22 +9724,22 @@
         <v>18</v>
       </c>
       <c r="C346" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D346" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E346" t="s">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="F346" t="s">
-        <v>637</v>
+        <v>591</v>
       </c>
       <c r="G346" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="H346">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9714,22 +9750,22 @@
         <v>18</v>
       </c>
       <c r="C347" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D347" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="E347" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="F347" t="s">
-        <v>576</v>
+        <v>605</v>
       </c>
       <c r="G347" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="H347">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9740,22 +9776,22 @@
         <v>18</v>
       </c>
       <c r="C348" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D348" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="E348" t="s">
-        <v>536</v>
+        <v>460</v>
       </c>
       <c r="F348" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
       <c r="G348" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="H348">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9766,13 +9802,22 @@
         <v>18</v>
       </c>
       <c r="C349" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D349" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E349" t="s">
-        <v>537</v>
+        <v>550</v>
+      </c>
+      <c r="F349" t="s">
+        <v>651</v>
+      </c>
+      <c r="G349" t="s">
+        <v>659</v>
+      </c>
+      <c r="H349">
+        <v>70</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9780,16 +9825,25 @@
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C350" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D350" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E350" t="s">
-        <v>540</v>
+        <v>460</v>
+      </c>
+      <c r="F350" t="s">
+        <v>605</v>
+      </c>
+      <c r="G350" t="s">
+        <v>657</v>
+      </c>
+      <c r="H350">
+        <v>40</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9797,25 +9851,25 @@
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C351" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D351" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E351" t="s">
-        <v>541</v>
+        <v>460</v>
       </c>
       <c r="F351" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="G351" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="H351">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9823,25 +9877,25 @@
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C352" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D352" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E352" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="F352" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="G352" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="H352">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9849,16 +9903,25 @@
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C353" t="s">
         <v>21</v>
       </c>
       <c r="D353" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="E353" t="s">
-        <v>542</v>
+        <v>459</v>
+      </c>
+      <c r="F353" t="s">
+        <v>604</v>
+      </c>
+      <c r="G353" t="s">
+        <v>658</v>
+      </c>
+      <c r="H353">
+        <v>100</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9866,22 +9929,25 @@
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C354" t="s">
         <v>21</v>
       </c>
       <c r="D354" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E354" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="F354" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="G354" t="s">
-        <v>650</v>
+        <v>660</v>
+      </c>
+      <c r="H354">
+        <v>20</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9889,22 +9955,22 @@
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C355" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D355" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E355" t="s">
-        <v>544</v>
+        <v>439</v>
       </c>
       <c r="F355" t="s">
-        <v>641</v>
+        <v>589</v>
       </c>
       <c r="G355" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="H355">
         <v>10</v>
@@ -9915,16 +9981,25 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C356" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D356" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E356" t="s">
-        <v>420</v>
+        <v>547</v>
+      </c>
+      <c r="F356" t="s">
+        <v>649</v>
+      </c>
+      <c r="G356" t="s">
+        <v>659</v>
+      </c>
+      <c r="H356">
+        <v>70</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9932,16 +10007,16 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C357" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D357" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E357" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9949,16 +10024,25 @@
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C358" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D358" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E358" t="s">
-        <v>420</v>
+        <v>550</v>
+      </c>
+      <c r="F358" t="s">
+        <v>651</v>
+      </c>
+      <c r="G358" t="s">
+        <v>659</v>
+      </c>
+      <c r="H358">
+        <v>70</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9969,19 +10053,19 @@
         <v>19</v>
       </c>
       <c r="C359" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D359" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E359" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="F359" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="G359" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="H359">
         <v>20</v>
@@ -9995,22 +10079,13 @@
         <v>19</v>
       </c>
       <c r="C360" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D360" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E360" t="s">
-        <v>424</v>
-      </c>
-      <c r="F360" t="s">
-        <v>574</v>
-      </c>
-      <c r="G360" t="s">
-        <v>647</v>
-      </c>
-      <c r="H360">
-        <v>40</v>
+        <v>552</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10021,13 +10096,13 @@
         <v>19</v>
       </c>
       <c r="C361" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D361" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E361" t="s">
-        <v>420</v>
+        <v>553</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10038,19 +10113,22 @@
         <v>19</v>
       </c>
       <c r="C362" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D362" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E362" t="s">
-        <v>546</v>
+        <v>434</v>
       </c>
       <c r="F362" t="s">
-        <v>642</v>
+        <v>587</v>
       </c>
       <c r="G362" t="s">
-        <v>650</v>
+        <v>657</v>
+      </c>
+      <c r="H362">
+        <v>40</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -10061,13 +10139,13 @@
         <v>19</v>
       </c>
       <c r="C363" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D363" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E363" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -10078,13 +10156,19 @@
         <v>19</v>
       </c>
       <c r="C364" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D364" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E364" t="s">
-        <v>548</v>
+        <v>555</v>
+      </c>
+      <c r="F364" t="s">
+        <v>653</v>
+      </c>
+      <c r="G364" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -10095,13 +10179,22 @@
         <v>19</v>
       </c>
       <c r="C365" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D365" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E365" t="s">
-        <v>549</v>
+        <v>556</v>
+      </c>
+      <c r="F365" t="s">
+        <v>654</v>
+      </c>
+      <c r="G365" t="s">
+        <v>661</v>
+      </c>
+      <c r="H365">
+        <v>10</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10112,13 +10205,13 @@
         <v>19</v>
       </c>
       <c r="C366" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D366" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E366" t="s">
-        <v>550</v>
+        <v>430</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10129,19 +10222,13 @@
         <v>19</v>
       </c>
       <c r="C367" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D367" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E367" t="s">
-        <v>546</v>
-      </c>
-      <c r="F367" t="s">
-        <v>642</v>
-      </c>
-      <c r="G367" t="s">
-        <v>650</v>
+        <v>557</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10152,16 +10239,16 @@
         <v>19</v>
       </c>
       <c r="C368" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D368" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E368" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -10169,16 +10256,25 @@
         <v>19</v>
       </c>
       <c r="C369" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D369" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E369" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
+        <v>551</v>
+      </c>
+      <c r="F369" t="s">
+        <v>652</v>
+      </c>
+      <c r="G369" t="s">
+        <v>660</v>
+      </c>
+      <c r="H369">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -10186,13 +10282,25 @@
         <v>19</v>
       </c>
       <c r="C370" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D370" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
+        <v>376</v>
+      </c>
+      <c r="E370" t="s">
+        <v>434</v>
+      </c>
+      <c r="F370" t="s">
+        <v>587</v>
+      </c>
+      <c r="G370" t="s">
+        <v>657</v>
+      </c>
+      <c r="H370">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -10200,16 +10308,16 @@
         <v>19</v>
       </c>
       <c r="C371" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D371" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E371" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -10217,16 +10325,22 @@
         <v>19</v>
       </c>
       <c r="C372" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D372" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E372" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+        <v>558</v>
+      </c>
+      <c r="F372" t="s">
+        <v>655</v>
+      </c>
+      <c r="G372" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -10234,16 +10348,16 @@
         <v>19</v>
       </c>
       <c r="C373" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D373" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E373" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -10251,16 +10365,16 @@
         <v>19</v>
       </c>
       <c r="C374" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D374" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E374" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -10268,16 +10382,16 @@
         <v>19</v>
       </c>
       <c r="C375" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D375" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E375" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -10285,13 +10399,186 @@
         <v>19</v>
       </c>
       <c r="C376" t="s">
+        <v>27</v>
+      </c>
+      <c r="D376" t="s">
+        <v>382</v>
+      </c>
+      <c r="E376" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" t="s">
+        <v>19</v>
+      </c>
+      <c r="C377" t="s">
+        <v>28</v>
+      </c>
+      <c r="D377" t="s">
+        <v>383</v>
+      </c>
+      <c r="E377" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>19</v>
+      </c>
+      <c r="C378" t="s">
+        <v>28</v>
+      </c>
+      <c r="D378" t="s">
+        <v>384</v>
+      </c>
+      <c r="E378" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>19</v>
+      </c>
+      <c r="C379" t="s">
+        <v>28</v>
+      </c>
+      <c r="D379" t="s">
+        <v>385</v>
+      </c>
+      <c r="E379" t="s">
+        <v>558</v>
+      </c>
+      <c r="F379" t="s">
+        <v>655</v>
+      </c>
+      <c r="G379" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>19</v>
+      </c>
+      <c r="C380" t="s">
+        <v>32</v>
+      </c>
+      <c r="D380" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381" t="s">
+        <v>19</v>
+      </c>
+      <c r="C381" t="s">
+        <v>32</v>
+      </c>
+      <c r="D381" t="s">
+        <v>387</v>
+      </c>
+      <c r="E381" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382" t="s">
+        <v>19</v>
+      </c>
+      <c r="C382" t="s">
+        <v>32</v>
+      </c>
+      <c r="D382" t="s">
+        <v>388</v>
+      </c>
+      <c r="E382" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383" t="s">
+        <v>19</v>
+      </c>
+      <c r="C383" t="s">
+        <v>43</v>
+      </c>
+      <c r="D383" t="s">
+        <v>389</v>
+      </c>
+      <c r="E383" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384" t="s">
+        <v>19</v>
+      </c>
+      <c r="C384" t="s">
+        <v>43</v>
+      </c>
+      <c r="D384" t="s">
+        <v>390</v>
+      </c>
+      <c r="E384" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" t="s">
+        <v>19</v>
+      </c>
+      <c r="C385" t="s">
+        <v>43</v>
+      </c>
+      <c r="D385" t="s">
+        <v>391</v>
+      </c>
+      <c r="E385" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" t="s">
+        <v>19</v>
+      </c>
+      <c r="C386" t="s">
         <v>29</v>
       </c>
-      <c r="D376" t="s">
-        <v>383</v>
-      </c>
-      <c r="E376" t="s">
-        <v>556</v>
+      <c r="D386" t="s">
+        <v>392</v>
+      </c>
+      <c r="E386" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
